--- a/data/hotels_by_city/Houston/Houston_shard_342.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_342.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="538">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56840-d1382735-Reviews-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Brenham-Hotels-Holiday-Inn-Express-Suites-Waller.h2511058.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531323333387&amp;cancellable=false&amp;regionId=6058884&amp;vip=false&amp;c=ded027d7-f9d2-425d-ab0b-2a3bd9ab0cab&amp;mctc=9&amp;exp_dp=92&amp;exp_ts=1531323334022&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,1505 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r601282291-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>56840</t>
+  </si>
+  <si>
+    <t>1382735</t>
+  </si>
+  <si>
+    <t>601282291</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Awesome service and terrific staff</t>
+  </si>
+  <si>
+    <t>Staff and service were both awesome. I would stay here again without any question. Staff were especially helpful in getting us into our room earlier than check-in time. They even called us to our room to see if the comfort and quality are good. I am impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Staff and service were both awesome. I would stay here again without any question. Staff were especially helpful in getting us into our room earlier than check-in time. They even called us to our room to see if the comfort and quality are good. I am impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r599388661-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>599388661</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Best value for money</t>
+  </si>
+  <si>
+    <t>Very clean hotel - rooms are clean, bathrooms are nice and amenities are great. The hotel is located between Prairie View A&amp;M Univ. and Goodman-Daikin facility. They are always busy but one of the best in Cypress, TX area. I like the area because it is away from the highway and very quiet for me to relax.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Very clean hotel - rooms are clean, bathrooms are nice and amenities are great. The hotel is located between Prairie View A&amp;M Univ. and Goodman-Daikin facility. They are always busy but one of the best in Cypress, TX area. I like the area because it is away from the highway and very quiet for me to relax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r597460720-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>597460720</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Very relaxing stay</t>
+  </si>
+  <si>
+    <t>I really was very happy with my stay here. The bed and pillows are very comfortable. The staff really were helpful, breakfast was awesome. I am sure that I will be coming back here for my next business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I really was very happy with my stay here. The bed and pillows are very comfortable. The staff really were helpful, breakfast was awesome. I am sure that I will be coming back here for my next business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r592587885-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>592587885</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent place to stay in Waller</t>
+  </si>
+  <si>
+    <t>The hotel is simply the best and the staff are really great. The cleanliness is one of the main reason why I keep coming back to stay here. This place is very close to my work and one of the in Houston. They have recently upgraded the breakfast and it is awesome. I would like to recommend this place to all.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is simply the best and the staff are really great. The cleanliness is one of the main reason why I keep coming back to stay here. This place is very close to my work and one of the in Houston. They have recently upgraded the breakfast and it is awesome. I would like to recommend this place to all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r591436228-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>591436228</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Housekeeping Nightmare: Bugs and Blood</t>
+  </si>
+  <si>
+    <t>I along with my fellow employees have been staying at this motel for the past several months while on business in the area.  Everything was okay at first (although always musty smelling masked by too much deodorizer) until recently.  On our second to last visit, my associate had to be relocated from his room at midnight due to being bit by bed bugs.  He got an I'm sorry and that's it.  On my last visit, when I awoke in the morning, I realized that I had just slept in someone's large bloody stain (lower body area and I'm not talking the legs...).  Disgusted and rattled I called the front desk.  The manager was not yet in so I asked to have the manager call me right away after I checked out.  The desk clerk did not offer anything other than I'm sorry.  I awaited the manager to call all day.  I finally called IHG and they offered me 15,000 points (I'm an Platinum Elite member) and an I'm sorry but did not refund my room charge.  
+The manager finally called me back near 5:00 pm and asked what side of the bed that I slept on and was talking about how to remove the stain!  He asked if I might have caused the stain; I'm a 62 year old happily married man, sleeping alone and my plumbing hadn't leaked - I checked.  What possible difference does it make which side...I along with my fellow employees have been staying at this motel for the past several months while on business in the area.  Everything was okay at first (although always musty smelling masked by too much deodorizer) until recently.  On our second to last visit, my associate had to be relocated from his room at midnight due to being bit by bed bugs.  He got an I'm sorry and that's it.  On my last visit, when I awoke in the morning, I realized that I had just slept in someone's large bloody stain (lower body area and I'm not talking the legs...).  Disgusted and rattled I called the front desk.  The manager was not yet in so I asked to have the manager call me right away after I checked out.  The desk clerk did not offer anything other than I'm sorry.  I awaited the manager to call all day.  I finally called IHG and they offered me 15,000 points (I'm an Platinum Elite member) and an I'm sorry but did not refund my room charge.  The manager finally called me back near 5:00 pm and asked what side of the bed that I slept on and was talking about how to remove the stain!  He asked if I might have caused the stain; I'm a 62 year old happily married man, sleeping alone and my plumbing hadn't leaked - I checked.  What possible difference does it make which side of a bed I sleep on?? - the entire bed should be stain free.  And this wasn't a stain that washing didn't take out; this was dried blood from the last guest in a bed that was never changed!  Things that nightmares are made of.  Neither me nor my fellow employees or, by my recommendation, our consultants will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>I along with my fellow employees have been staying at this motel for the past several months while on business in the area.  Everything was okay at first (although always musty smelling masked by too much deodorizer) until recently.  On our second to last visit, my associate had to be relocated from his room at midnight due to being bit by bed bugs.  He got an I'm sorry and that's it.  On my last visit, when I awoke in the morning, I realized that I had just slept in someone's large bloody stain (lower body area and I'm not talking the legs...).  Disgusted and rattled I called the front desk.  The manager was not yet in so I asked to have the manager call me right away after I checked out.  The desk clerk did not offer anything other than I'm sorry.  I awaited the manager to call all day.  I finally called IHG and they offered me 15,000 points (I'm an Platinum Elite member) and an I'm sorry but did not refund my room charge.  
+The manager finally called me back near 5:00 pm and asked what side of the bed that I slept on and was talking about how to remove the stain!  He asked if I might have caused the stain; I'm a 62 year old happily married man, sleeping alone and my plumbing hadn't leaked - I checked.  What possible difference does it make which side...I along with my fellow employees have been staying at this motel for the past several months while on business in the area.  Everything was okay at first (although always musty smelling masked by too much deodorizer) until recently.  On our second to last visit, my associate had to be relocated from his room at midnight due to being bit by bed bugs.  He got an I'm sorry and that's it.  On my last visit, when I awoke in the morning, I realized that I had just slept in someone's large bloody stain (lower body area and I'm not talking the legs...).  Disgusted and rattled I called the front desk.  The manager was not yet in so I asked to have the manager call me right away after I checked out.  The desk clerk did not offer anything other than I'm sorry.  I awaited the manager to call all day.  I finally called IHG and they offered me 15,000 points (I'm an Platinum Elite member) and an I'm sorry but did not refund my room charge.  The manager finally called me back near 5:00 pm and asked what side of the bed that I slept on and was talking about how to remove the stain!  He asked if I might have caused the stain; I'm a 62 year old happily married man, sleeping alone and my plumbing hadn't leaked - I checked.  What possible difference does it make which side of a bed I sleep on?? - the entire bed should be stain free.  And this wasn't a stain that washing didn't take out; this was dried blood from the last guest in a bed that was never changed!  Things that nightmares are made of.  Neither me nor my fellow employees or, by my recommendation, our consultants will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r588600578-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>588600578</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I was not sure about this place but was happy with my stay. The staff are very nice and helpfull, the breakfast was good enough, plastic plates and cutlery, but no big deal. I would stay there again if on a business trip as it is a good location for my company.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r580896399-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>580896399</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Great stay at Waller, TX</t>
+  </si>
+  <si>
+    <t>This is nice place and good for business travelers. Very close to the highway and also quality of service is excellent. I would recommend this place to my friends and colleagues. I will be back in fall.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>This is nice place and good for business travelers. Very close to the highway and also quality of service is excellent. I would recommend this place to my friends and colleagues. I will be back in fall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r574599061-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>574599061</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Fantastic place!!!</t>
+  </si>
+  <si>
+    <t>I really think this place very well maintained. The management is really good keeping the place clean, affordable and friendly staff. Very rare in hotels I stayed in over the last few years. the breakfast was good and I will keep this hotel in my favorites. Thanks to the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2018</t>
+  </si>
+  <si>
+    <t>I really think this place very well maintained. The management is really good keeping the place clean, affordable and friendly staff. Very rare in hotels I stayed in over the last few years. the breakfast was good and I will keep this hotel in my favorites. Thanks to the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r569960771-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>569960771</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Impressive!!!</t>
+  </si>
+  <si>
+    <t>I spent the relaxing night here. I am very pleased with the breakfast choices. Clean rooms and exceptionally helpful staff. The pool was very clean and area was quiet. I will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>I spent the relaxing night here. I am very pleased with the breakfast choices. Clean rooms and exceptionally helpful staff. The pool was very clean and area was quiet. I will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r562745683-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>562745683</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Best palce in the area</t>
+  </si>
+  <si>
+    <t>This is a great place to relax - very quiet and close to the outlet mall and Daikin facility. I like the nice and spacious room, also great breakfast. The staff are very nice and helpful. The hotel is always kept very clean and smells great.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>This is a great place to relax - very quiet and close to the outlet mall and Daikin facility. I like the nice and spacious room, also great breakfast. The staff are very nice and helpful. The hotel is always kept very clean and smells great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r542473388-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>542473388</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Don't stay here if you're going to RenFest</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express is a nice hotel, great amenities (unknown pool situation since it is winter), but I  am a bit disappointed for the price that we paid. With taxes, it was $150 USD a night. The staff was great, the internet was very stable, the hotel was very clean. But, no frig or microwave, water was lukewarm at its hottest. The front desk said it was because "everyone was using the water at the same time." Not acceptable for this price in Waller, Texas. It's not a destination city. It's too far from the Renaissance Fair because of the way they make you go to the fair. So, not a great deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express is a nice hotel, great amenities (unknown pool situation since it is winter), but I  am a bit disappointed for the price that we paid. With taxes, it was $150 USD a night. The staff was great, the internet was very stable, the hotel was very clean. But, no frig or microwave, water was lukewarm at its hottest. The front desk said it was because "everyone was using the water at the same time." Not acceptable for this price in Waller, Texas. It's not a destination city. It's too far from the Renaissance Fair because of the way they make you go to the fair. So, not a great deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r539814793-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>539814793</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>A tad disappointing ( as usual with IHG, slow internet).</t>
+  </si>
+  <si>
+    <t>I’ll keep it short. Same problem I run into every time, super slow internet speeds. Whether it be WiFi or LAN cable connection. This Holiday Inn was no exception. Slow internet speeds. I rely on the speed for my daily reports I have to file and the such. I have to use hotspot 98% of time. IHG family of hotels needs to invest more money into much better internet than their current garbage.   Also another usual occurrence, the AC wouldn’t cool below 72 in my room(325).Wish they would pay attention to the meaningful details.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>I’ll keep it short. Same problem I run into every time, super slow internet speeds. Whether it be WiFi or LAN cable connection. This Holiday Inn was no exception. Slow internet speeds. I rely on the speed for my daily reports I have to file and the such. I have to use hotspot 98% of time. IHG family of hotels needs to invest more money into much better internet than their current garbage.   Also another usual occurrence, the AC wouldn’t cool below 72 in my room(325).Wish they would pay attention to the meaningful details.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r532647508-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>532647508</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>Our room was very dirty with dirty socks and a refrigerator full of old food just to name a few of the nasty issues. The general manager called us after we left and "greatly apologized", and then offset our room by $25. Really? We won't stay there again. $100 is still too much to pay for such a bad experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Our room was very dirty with dirty socks and a refrigerator full of old food just to name a few of the nasty issues. The general manager called us after we left and "greatly apologized", and then offset our room by $25. Really? We won't stay there again. $100 is still too much to pay for such a bad experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r531233919-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>531233919</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Good service and Clean place</t>
+  </si>
+  <si>
+    <t>The place has a business friendly decor and for some reason the whole place has an issue with humidity. If you stay on the first floor or any other the moisture created from a shower takes a while to get out of the room even if the fan in the bathroom runs all the time. The cleaning staff can have attitude some time depending upon on things. I would not personally go again but it is a Holiday Inn Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>The place has a business friendly decor and for some reason the whole place has an issue with humidity. If you stay on the first floor or any other the moisture created from a shower takes a while to get out of the room even if the fan in the bathroom runs all the time. The cleaning staff can have attitude some time depending upon on things. I would not personally go again but it is a Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r528965961-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>528965961</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>more then expected</t>
+  </si>
+  <si>
+    <t>Stayed over the weekend for a wedding. Room was great. Larger then expected. Check in staff were extremely friendly. I will probably never be area again, but wanted to let management know staff doing a good jobMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed over the weekend for a wedding. Room was great. Larger then expected. Check in staff were extremely friendly. I will probably never be area again, but wanted to let management know staff doing a good jobMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r491532397-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>491532397</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Nice and spacious rooms and very clean</t>
+  </si>
+  <si>
+    <t>The room was bigger than I expected and smelled great. The hotel is very clean and that is what I care about. The room smelled great and the staff were very nice. My overall trip was very relaxing and comfortable. I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>The room was bigger than I expected and smelled great. The hotel is very clean and that is what I care about. The room smelled great and the staff were very nice. My overall trip was very relaxing and comfortable. I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r491141833-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>491141833</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>My university booked the entire hotel for a conference at the nearby university. Every room was packed with our students and professors. My room was on the first floor. When I checked in and got to my room with my roommate, there was an overwhelming smell of mold. The room appeared clean but the smell of mold gave us headaches within minutes. The floor, mattresses, and walls all were fine. The smell came from a blanket of mold within the AC. We reported it to the front desk and they were pretty quick to respond. Someone from the front desk, someone from housekeeping, and the manager all came to check. The had us leave the room while they cleaned it, as the all the other rooms were booked and we could not be moved. The did their best to remove the mold, sprayed it down with a cleaner, and sprayed the room with air freshener. This helped a bit, but the smell still lingered our entire two day stay. Luckily we were out at a conference the majority of the time. I suspect this mold was an isolated issue, as I spent some time in my colleague's room to prepare for our presentation and his room was just as clean but was absent of the smell of mold. 
+The bathroom was clean. The staff was friendly and helpful. The breakfast was great. I gave a rating of 3/5 because the...My university booked the entire hotel for a conference at the nearby university. Every room was packed with our students and professors. My room was on the first floor. When I checked in and got to my room with my roommate, there was an overwhelming smell of mold. The room appeared clean but the smell of mold gave us headaches within minutes. The floor, mattresses, and walls all were fine. The smell came from a blanket of mold within the AC. We reported it to the front desk and they were pretty quick to respond. Someone from the front desk, someone from housekeeping, and the manager all came to check. The had us leave the room while they cleaned it, as the all the other rooms were booked and we could not be moved. The did their best to remove the mold, sprayed it down with a cleaner, and sprayed the room with air freshener. This helped a bit, but the smell still lingered our entire two day stay. Luckily we were out at a conference the majority of the time. I suspect this mold was an isolated issue, as I spent some time in my colleague's room to prepare for our presentation and his room was just as clean but was absent of the smell of mold. The bathroom was clean. The staff was friendly and helpful. The breakfast was great. I gave a rating of 3/5 because the mold could not be remedied despite the efforts of the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>My university booked the entire hotel for a conference at the nearby university. Every room was packed with our students and professors. My room was on the first floor. When I checked in and got to my room with my roommate, there was an overwhelming smell of mold. The room appeared clean but the smell of mold gave us headaches within minutes. The floor, mattresses, and walls all were fine. The smell came from a blanket of mold within the AC. We reported it to the front desk and they were pretty quick to respond. Someone from the front desk, someone from housekeeping, and the manager all came to check. The had us leave the room while they cleaned it, as the all the other rooms were booked and we could not be moved. The did their best to remove the mold, sprayed it down with a cleaner, and sprayed the room with air freshener. This helped a bit, but the smell still lingered our entire two day stay. Luckily we were out at a conference the majority of the time. I suspect this mold was an isolated issue, as I spent some time in my colleague's room to prepare for our presentation and his room was just as clean but was absent of the smell of mold. 
+The bathroom was clean. The staff was friendly and helpful. The breakfast was great. I gave a rating of 3/5 because the...My university booked the entire hotel for a conference at the nearby university. Every room was packed with our students and professors. My room was on the first floor. When I checked in and got to my room with my roommate, there was an overwhelming smell of mold. The room appeared clean but the smell of mold gave us headaches within minutes. The floor, mattresses, and walls all were fine. The smell came from a blanket of mold within the AC. We reported it to the front desk and they were pretty quick to respond. Someone from the front desk, someone from housekeeping, and the manager all came to check. The had us leave the room while they cleaned it, as the all the other rooms were booked and we could not be moved. The did their best to remove the mold, sprayed it down with a cleaner, and sprayed the room with air freshener. This helped a bit, but the smell still lingered our entire two day stay. Luckily we were out at a conference the majority of the time. I suspect this mold was an isolated issue, as I spent some time in my colleague's room to prepare for our presentation and his room was just as clean but was absent of the smell of mold. The bathroom was clean. The staff was friendly and helpful. The breakfast was great. I gave a rating of 3/5 because the mold could not be remedied despite the efforts of the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r485482787-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>485482787</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>missing essentials</t>
+  </si>
+  <si>
+    <t>When checking they lost our reservation took about 20 minutes to resolve the situation. Then walked in the room with food and drinks for our 2 day stay and come to find out THIS hotel does not have a microwave or refrigerator, so we had to eat all of our food or trash it. Went down stairs saturday morning for coffee and no coffee available till breakfast. Trust me it gets better, coming back to hotel Saturday night just pass the front door and there was a drug deal going on in the parking lot. I posted the same comments on the hotel site and it was not approved to be posted. Would not be going back to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>When checking they lost our reservation took about 20 minutes to resolve the situation. Then walked in the room with food and drinks for our 2 day stay and come to find out THIS hotel does not have a microwave or refrigerator, so we had to eat all of our food or trash it. Went down stairs saturday morning for coffee and no coffee available till breakfast. Trust me it gets better, coming back to hotel Saturday night just pass the front door and there was a drug deal going on in the parking lot. I posted the same comments on the hotel site and it was not approved to be posted. Would not be going back to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r445323849-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>445323849</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>The superb service is the reason why many of us keep coming back to this hotel. My family and friends come for reunion and we always have a good time. The hotel takes great care of us and the amenities are fantastic. The staff might be their best asset.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2016</t>
+  </si>
+  <si>
+    <t>The superb service is the reason why many of us keep coming back to this hotel. My family and friends come for reunion and we always have a good time. The hotel takes great care of us and the amenities are fantastic. The staff might be their best asset.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r440892218-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>440892218</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Somewhere Else May Be a Better Choice!</t>
+  </si>
+  <si>
+    <t>The positives:  The staff were very accommodating and the lobby was very attractive.  The hotel is well off of the freeway (Highway 290 at FM 2920), and was quiet with plenty of free parking.  There is a Mexican restaurant close by (although it was closed during our stay), as well as some shopping.  The hotel had free Wi-Fi, and there were plenty of outlets and towels available.  Additionally, the bed was comfortable with a variety of pillows to select from (soft to hard).  The rooms were large and roomy with a desk and dresser.
+The negatives:  When we checked into our room, we discovered that the soap (in the bathroom) had been opened and only the wrapper left.  The bath map was soaking wet, leaving us to wonder if someone had just been in the room to take a shower.  There was only a little toilet paper left on the roll with no refill in sight, and about 5 tissues left in the tissue box with no refill.  There were cobwebs in both corners above the bathroom mirror.  There was new paint on the ceilings above the tub/shower which, not only did not match, but appeared to be used to try to cover up the mold/mildew still showing through.  The corners were yellow and dirty, and there was mismatched plaster around the tub and floor.  No matter how hard we tried to contain it, water leaked out all over the...The positives:  The staff were very accommodating and the lobby was very attractive.  The hotel is well off of the freeway (Highway 290 at FM 2920), and was quiet with plenty of free parking.  There is a Mexican restaurant close by (although it was closed during our stay), as well as some shopping.  The hotel had free Wi-Fi, and there were plenty of outlets and towels available.  Additionally, the bed was comfortable with a variety of pillows to select from (soft to hard).  The rooms were large and roomy with a desk and dresser.The negatives:  When we checked into our room, we discovered that the soap (in the bathroom) had been opened and only the wrapper left.  The bath map was soaking wet, leaving us to wonder if someone had just been in the room to take a shower.  There was only a little toilet paper left on the roll with no refill in sight, and about 5 tissues left in the tissue box with no refill.  There were cobwebs in both corners above the bathroom mirror.  There was new paint on the ceilings above the tub/shower which, not only did not match, but appeared to be used to try to cover up the mold/mildew still showing through.  The corners were yellow and dirty, and there was mismatched plaster around the tub and floor.  No matter how hard we tried to contain it, water leaked out all over the floor during our showers, causing us to use the many towels to mop it up.The air conditioner spewed black specks all over the bed, which indicated mold/mildew in the filter.  There were patches on the ceiling (not sure what they had to patch), that were very poorly done.The free breakfast was only "passable".  The cereal and cinnamon roll were the best selections.  The "eggs" tasted like they had come from a box and were crumbly and watery.Although this is suppose to be a new Holiday Inn Express, we were disappointed overall and will try another hotel the next time we are passing through.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>The positives:  The staff were very accommodating and the lobby was very attractive.  The hotel is well off of the freeway (Highway 290 at FM 2920), and was quiet with plenty of free parking.  There is a Mexican restaurant close by (although it was closed during our stay), as well as some shopping.  The hotel had free Wi-Fi, and there were plenty of outlets and towels available.  Additionally, the bed was comfortable with a variety of pillows to select from (soft to hard).  The rooms were large and roomy with a desk and dresser.
+The negatives:  When we checked into our room, we discovered that the soap (in the bathroom) had been opened and only the wrapper left.  The bath map was soaking wet, leaving us to wonder if someone had just been in the room to take a shower.  There was only a little toilet paper left on the roll with no refill in sight, and about 5 tissues left in the tissue box with no refill.  There were cobwebs in both corners above the bathroom mirror.  There was new paint on the ceilings above the tub/shower which, not only did not match, but appeared to be used to try to cover up the mold/mildew still showing through.  The corners were yellow and dirty, and there was mismatched plaster around the tub and floor.  No matter how hard we tried to contain it, water leaked out all over the...The positives:  The staff were very accommodating and the lobby was very attractive.  The hotel is well off of the freeway (Highway 290 at FM 2920), and was quiet with plenty of free parking.  There is a Mexican restaurant close by (although it was closed during our stay), as well as some shopping.  The hotel had free Wi-Fi, and there were plenty of outlets and towels available.  Additionally, the bed was comfortable with a variety of pillows to select from (soft to hard).  The rooms were large and roomy with a desk and dresser.The negatives:  When we checked into our room, we discovered that the soap (in the bathroom) had been opened and only the wrapper left.  The bath map was soaking wet, leaving us to wonder if someone had just been in the room to take a shower.  There was only a little toilet paper left on the roll with no refill in sight, and about 5 tissues left in the tissue box with no refill.  There were cobwebs in both corners above the bathroom mirror.  There was new paint on the ceilings above the tub/shower which, not only did not match, but appeared to be used to try to cover up the mold/mildew still showing through.  The corners were yellow and dirty, and there was mismatched plaster around the tub and floor.  No matter how hard we tried to contain it, water leaked out all over the floor during our showers, causing us to use the many towels to mop it up.The air conditioner spewed black specks all over the bed, which indicated mold/mildew in the filter.  There were patches on the ceiling (not sure what they had to patch), that were very poorly done.The free breakfast was only "passable".  The cereal and cinnamon roll were the best selections.  The "eggs" tasted like they had come from a box and were crumbly and watery.Although this is suppose to be a new Holiday Inn Express, we were disappointed overall and will try another hotel the next time we are passing through.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r440215758-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>440215758</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>Loved!!</t>
+  </si>
+  <si>
+    <t>We had a wonderful experience staying at this Holiday Inn! From the front desk receptionist to the cleanliness, and awesome breakfast, we would definitely return. It's in a quiet location off of the highway just close enough to a Buccee's and nearby shopping. Should we ever be headed this direction again, we'll definitely be returning to this Holiday Inn Express! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2016</t>
+  </si>
+  <si>
+    <t>We had a wonderful experience staying at this Holiday Inn! From the front desk receptionist to the cleanliness, and awesome breakfast, we would definitely return. It's in a quiet location off of the highway just close enough to a Buccee's and nearby shopping. Should we ever be headed this direction again, we'll definitely be returning to this Holiday Inn Express! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r436171524-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>436171524</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Great location for Texas Renaissance</t>
+  </si>
+  <si>
+    <t>The rent was very cheap and the hotel room was very nice. We had a great time and trip was great because it fit our budget. The breakfast was decent, the crew was caring and we decided to stay here again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2016</t>
+  </si>
+  <si>
+    <t>The rent was very cheap and the hotel room was very nice. We had a great time and trip was great because it fit our budget. The breakfast was decent, the crew was caring and we decided to stay here again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r435070474-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>435070474</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Best hotel in the area</t>
+  </si>
+  <si>
+    <t>The place is convenient and quiet for the me relax. Staff is very helpful and the location is perfect. This a family friendly place and very safe. I will be back more stay as this works for me - price is fair.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>The place is convenient and quiet for the me relax. Staff is very helpful and the location is perfect. This a family friendly place and very safe. I will be back more stay as this works for me - price is fair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r431792755-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>431792755</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Texas Renaissance Hotel Option -about 30 minutes</t>
+  </si>
+  <si>
+    <t>Need a place far enough away from the High prices of hotels supporting the Texas Renaissance festival, but close enough to have a short drive in the morning. Have found that Waller offers this. Had points available for a HI Express stay this year so we stayed there. Hotel is on upper scale of my recent HIE experiences. Room nice, service above normal, facilities in good shape. Business ctr was working for what I needed, Son used the gym. Enough elec outlets to support the modern traveling family. Breakfast an 8 on a 10 point scale. All 3 of us had trouble sleeping but nothing to lay blame on the room or hotel. No excessive noise from in the hotel or outside. We were on the bank building side of the hotel and it was a Sat/Sun night stay so nothing going on over there. Wedding party in hotel was not a problem at least where we heard them. Breakfast was a good full offering and it was kept well stock while I was there.  Pool was outside, I had hope for an inside pool. Yeah I could have looked first.  No hot tub, Again I could have looked first; but this trip was about location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Need a place far enough away from the High prices of hotels supporting the Texas Renaissance festival, but close enough to have a short drive in the morning. Have found that Waller offers this. Had points available for a HI Express stay this year so we stayed there. Hotel is on upper scale of my recent HIE experiences. Room nice, service above normal, facilities in good shape. Business ctr was working for what I needed, Son used the gym. Enough elec outlets to support the modern traveling family. Breakfast an 8 on a 10 point scale. All 3 of us had trouble sleeping but nothing to lay blame on the room or hotel. No excessive noise from in the hotel or outside. We were on the bank building side of the hotel and it was a Sat/Sun night stay so nothing going on over there. Wedding party in hotel was not a problem at least where we heard them. Breakfast was a good full offering and it was kept well stock while I was there.  Pool was outside, I had hope for an inside pool. Yeah I could have looked first.  No hot tub, Again I could have looked first; but this trip was about location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r431325910-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>431325910</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>I had a great experience at this place, the rooms are spacious and the staff are very nice. The place looks new and my trip was very comforting due to the fact the hotel had everythign I needed. This is family frinedly hotel and a very quiet place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>I had a great experience at this place, the rooms are spacious and the staff are very nice. The place looks new and my trip was very comforting due to the fact the hotel had everythign I needed. This is family frinedly hotel and a very quiet place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r429474450-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>429474450</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>This place is terrific</t>
+  </si>
+  <si>
+    <t>I love the bed and breakfast. I am a light traveller and so as long as the bed, pillows amd breaksfast are great, I am happy. It looks like a new hotel and staff are very professional. I will recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>I love the bed and breakfast. I am a light traveller and so as long as the bed, pillows amd breaksfast are great, I am happy. It looks like a new hotel and staff are very professional. I will recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r421879052-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>421879052</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Terrific place</t>
+  </si>
+  <si>
+    <t>I had a relaxed vacation mainly because of the quality of the service at this hotel. They have great staff and know how to take care of a guest, the front desk crew was very helpful. I would stay again anytime.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>I had a relaxed vacation mainly because of the quality of the service at this hotel. They have great staff and know how to take care of a guest, the front desk crew was very helpful. I would stay again anytime.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r403822758-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>403822758</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Excellent Trip</t>
+  </si>
+  <si>
+    <t>My trip was great and I was able to relax in total quietness. The hotel provided great service and comfort, I would like to thank the staff and would come back to stay here again. The hotel looks new.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Tanvir S, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded August 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2016</t>
+  </si>
+  <si>
+    <t>My trip was great and I was able to relax in total quietness. The hotel provided great service and comfort, I would like to thank the staff and would come back to stay here again. The hotel looks new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r399001585-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>399001585</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Nice and convenient</t>
+  </si>
+  <si>
+    <t>I like the hotel due to cleanliness of the rooms and the friendliness of the staff. Evrything was very smoth and I felt at home. All my colleagues were very happy and I thank the staff for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Tanvir S, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>I like the hotel due to cleanliness of the rooms and the friendliness of the staff. Evrything was very smoth and I felt at home. All my colleagues were very happy and I thank the staff for a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r395122415-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>395122415</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Best hotel in the Cypress/Waller area</t>
+  </si>
+  <si>
+    <t>The room was very clean and the beds were extremely comfortable. The hotel is located about 4-5 miles from Prairie View A&amp; M university. This was very convenient for me. The staff of the hotel were very caring and everything inside the hotel looks new and recently upgraded.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>The room was very clean and the beds were extremely comfortable. The hotel is located about 4-5 miles from Prairie View A&amp; M university. This was very convenient for me. The staff of the hotel were very caring and everything inside the hotel looks new and recently upgraded.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r391032749-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>391032749</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel experience yet!</t>
+  </si>
+  <si>
+    <t>The room smelled like a filthy women's bathroom when the sheets were pulled back on the bed.  Giant roach in our bathroom and hair in the bathtub.  We drove 2 hours home at 10:30 pm.  When we went to check out the girl at the counter was very sweet and apologetic.  The manager that called this morning was rude and said they checked the room and nothing was wrong with it and that we had told the desk the room was okay when we checked in.  The guy did call the ask how the room was but I hadn't even set my bags down.  We had just walked in.  I guess she missed the huge dead roach we left in the toilet and I would guess she didn't bother to smell the sheets on the bed.  We checked in early and hadn't had a chance to really notice much about the room because we left for a wedding.  The air freshener smell was over whelming when we first arrived .... When we returned it was obvious why.  We travel a lot and this is my worst hotel experience so far.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room smelled like a filthy women's bathroom when the sheets were pulled back on the bed.  Giant roach in our bathroom and hair in the bathtub.  We drove 2 hours home at 10:30 pm.  When we went to check out the girl at the counter was very sweet and apologetic.  The manager that called this morning was rude and said they checked the room and nothing was wrong with it and that we had told the desk the room was okay when we checked in.  The guy did call the ask how the room was but I hadn't even set my bags down.  We had just walked in.  I guess she missed the huge dead roach we left in the toilet and I would guess she didn't bother to smell the sheets on the bed.  We checked in early and hadn't had a chance to really notice much about the room because we left for a wedding.  The air freshener smell was over whelming when we first arrived .... When we returned it was obvious why.  We travel a lot and this is my worst hotel experience so far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r390449584-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>390449584</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Too good for a Holiday Inn Hotel</t>
+  </si>
+  <si>
+    <t>I havve been other holiday Inn hotels and never had such a great experience. The hotel is located in the middle of the country but has great views, very quiet and perfect for relaxing. I am glad I found the great hotel at a good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2016</t>
+  </si>
+  <si>
+    <t>I havve been other holiday Inn hotels and never had such a great experience. The hotel is located in the middle of the country but has great views, very quiet and perfect for relaxing. I am glad I found the great hotel at a good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r385863761-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>385863761</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>My favorite hotel</t>
+  </si>
+  <si>
+    <t>This place has become my favorite. They know how to take care of guests. I like the rooms and especially the pillows, the food was as expected from any Holiday Inn Express. The caring staff and excellent service is commendable.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>This place has become my favorite. They know how to take care of guests. I like the rooms and especially the pillows, the food was as expected from any Holiday Inn Express. The caring staff and excellent service is commendable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r366715437-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>366715437</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>I loved it</t>
+  </si>
+  <si>
+    <t>I find the hotel fairly new and very clean. The breakfast was as i expected - warm and plenty. The staff were extremely courteous and helpful. I always stay in Holiday Inn hotels and I think this hotel is exceptionally nice.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r362382824-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>362382824</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Frequent guest - very happy</t>
+  </si>
+  <si>
+    <t>I have been a frequent guest at this hotel for the last few months. The staff and the management team are the second to none. They really made me feel at home. I think the staff are very well trained and the they care for the guests. I hope to stay here again if I am back to Waller.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r360359187-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>360359187</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redone but tired hotel </t>
+  </si>
+  <si>
+    <t>This older hotel has been redone. It looks nice and our king sized room had a kitchenette with microwave. However, our room smelled stale and mildewed even after running the fan all night. Television channels are very limited. Breakfast was fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>This older hotel has been redone. It looks nice and our king sized room had a kitchenette with microwave. However, our room smelled stale and mildewed even after running the fan all night. Television channels are very limited. Breakfast was fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r354328254-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>354328254</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Great breakfast and nice comfortable bed</t>
+  </si>
+  <si>
+    <t>I stay in Holiday Inn hotels most of the time. Thgis hotel is very clean and the room was very nice, the pillows were very comfortable. The breakfast was plenty, many things to choose from. The staff were very helpful and I think the hotel exceeded my expectations.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r352729847-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>352729847</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Nice spacious room and quiet place to relax</t>
+  </si>
+  <si>
+    <t>The hotel has great staff - from the front desk to the breakfast area. My wife and I are senior citizens, we made several requests and they always came thru with a great smile. We felt very much welcomed. The room was very spacious and we received AARP discount.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r352380750-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>352380750</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay, courteous staff</t>
+  </si>
+  <si>
+    <t>I love how the staff recognizes me as an IHG rewards member and welcomes me to the hotel. I stay at this hotel all the time, and I always enjoy it. Breakfast is also great with good options. I would recommend this hotel to everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r347382987-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>347382987</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Very pleasant saty</t>
+  </si>
+  <si>
+    <t>I always have good stay at this hotel. The comfort of the room, caring staff and the breakfast are excellent. The hotel is very clean and the management is great. The general maanger is always there and very friendly. My family and I feel very welcome and safe at all time.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r345402348-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>345402348</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Supur staff and great room comfort</t>
+  </si>
+  <si>
+    <t>I like this hotel for two reasons (1) the rooms are very comfortable (2) the staff make you feel at home at all times. The food was great and the their service is second to none. The staff will go above and beyond their way to satisfy you. I am very happy with their service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r330726388-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>330726388</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>This is how Holiday Inn Should be</t>
+  </si>
+  <si>
+    <t>Great smell of the room, comfortable pillows, quiet and good breakfast. I was very impressed with staff. Well managed hotel. The hotel is about 30 miles from Houston downtown but has great price and I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r321624366-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>321624366</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Quick trip</t>
+  </si>
+  <si>
+    <t>The front desk staff and cleaning staff were friendly. The room was ok. It was very clean, but had a very musty odor. The mattress was fairly comfortable. The pillows were still in good shape. Overall the experience was good. The room could use some updating though. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2015</t>
+  </si>
+  <si>
+    <t>The front desk staff and cleaning staff were friendly. The room was ok. It was very clean, but had a very musty odor. The mattress was fairly comfortable. The pillows were still in good shape. Overall the experience was good. The room could use some updating though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r304823312-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>304823312</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick stay </t>
+  </si>
+  <si>
+    <t>The hotel offers a military discount and my family and I are very appreciative of this offer. We came to Waller so that we could do the Watermelon run for the Fallen Heroes. The hotel was nice and the staff friendly. During the month of August, pancakes were served in the evening. There was also a complimentary breakfast in the morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>The hotel offers a military discount and my family and I are very appreciative of this offer. We came to Waller so that we could do the Watermelon run for the Fallen Heroes. The hotel was nice and the staff friendly. During the month of August, pancakes were served in the evening. There was also a complimentary breakfast in the morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r294845460-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>294845460</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Holiday inn ExpressWaller Tx</t>
+  </si>
+  <si>
+    <t>Rooms were damp, had a bad odor and were full of mold. When we would leave and room and come back everything in the room would be wet. The room ceiling had dark spots all over it. Nice pool, nice continental breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Rooms were damp, had a bad odor and were full of mold. When we would leave and room and come back everything in the room would be wet. The room ceiling had dark spots all over it. Nice pool, nice continental breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r285365133-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>285365133</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Comfortable bed and caring staff</t>
+  </si>
+  <si>
+    <t>I love the pillows. My family and I had a wonderful time, room was very clean. The staff at the front desk are the best. Every time we call to ask for something, they brought it to us promptly. The hot breakfast was awesome. We would come here again next summer.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r279854910-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>279854910</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Bed bugs in Room</t>
+  </si>
+  <si>
+    <t>Simple and plan bed bugs in room 304. Live adult bed bug living in room and spider on my bed. The room smelled bad and there was mildew in shower. I saw a bay spider on my bed and then I checked my bed and I I looked up there was an adult bed bug crawling up the wall to to ceiling. I left  the hotel and was given a refund we went to another hotel in Jersey VillageMoreShow less</t>
+  </si>
+  <si>
+    <t>budpatel60, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2015</t>
+  </si>
+  <si>
+    <t>Simple and plan bed bugs in room 304. Live adult bed bug living in room and spider on my bed. The room smelled bad and there was mildew in shower. I saw a bay spider on my bed and then I checked my bed and I I looked up there was an adult bed bug crawling up the wall to to ceiling. I left  the hotel and was given a refund we went to another hotel in Jersey VillageMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r273589860-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>273589860</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Mildew Smell</t>
+  </si>
+  <si>
+    <t>I just stayed 6 days at this Holiday Inn Express.  I am not a complainer, but this place was the worst Holiday Inn I have ever stayed at.  I normally stay in Holiday Inns and have for over 40 years.   I have Allergies and Asthma so I like them as they are non smoking rooms.   I checked in and they gave me a King Size room on the 3rd floor.  
+I opened the door and it smelled like bleach and cigarettes.  I went down and said I needed a new room because someone smoked in the room and they used bleach to cover the smell.  The frt desk clerk said OH that's not cigarettes, that's Mildew because they have had a lot of rain.  I insisted I needed a new room.  He gave me one on the 2nd floor.  It smelled but wasn't as bad.  I was tired and took it.  Tried to open the window, but it was screwed close.  I turned on the AC and lowered the temp to 66 and turned on the Bathroom fan.  I ran it  all night long.  After about 2 days it started to loose the smell.  I would have switched hotels, but all the hotels around there were booked because of some college graduations.  
+I paid around $680.00 and half expected they would give me a partial refund because of my complaints.  I would never stay there.  Driving home and stayed at...I just stayed 6 days at this Holiday Inn Express.  I am not a complainer, but this place was the worst Holiday Inn I have ever stayed at.  I normally stay in Holiday Inns and have for over 40 years.   I have Allergies and Asthma so I like them as they are non smoking rooms.   I checked in and they gave me a King Size room on the 3rd floor.  I opened the door and it smelled like bleach and cigarettes.  I went down and said I needed a new room because someone smoked in the room and they used bleach to cover the smell.  The frt desk clerk said OH that's not cigarettes, that's Mildew because they have had a lot of rain.  I insisted I needed a new room.  He gave me one on the 2nd floor.  It smelled but wasn't as bad.  I was tired and took it.  Tried to open the window, but it was screwed close.  I turned on the AC and lowered the temp to 66 and turned on the Bathroom fan.  I ran it  all night long.  After about 2 days it started to loose the smell.  I would have switched hotels, but all the hotels around there were booked because of some college graduations.  I paid around $680.00 and half expected they would give me a partial refund because of my complaints.  I would never stay there.  Driving home and stayed at other brand name hotels.Never stay at this place.  I had 4 friends who stayed there too.  They were all disappointed too.  The maid service sucked, 2 of the days they never emptied my waste baskets or gave ew towels and shampoo.  There was dust on the dresser and desk, around the bathtub there was black mold.  The Wi-Fi was bad, so I used my Hot Spot on my phone.  The pancake machine was broken.  I complained to the manager and he had a I don't care attitude.  I expected  some sort of refund or apology.  Nothing was said.   In My Opinion This hotel is Terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2015</t>
+  </si>
+  <si>
+    <t>I just stayed 6 days at this Holiday Inn Express.  I am not a complainer, but this place was the worst Holiday Inn I have ever stayed at.  I normally stay in Holiday Inns and have for over 40 years.   I have Allergies and Asthma so I like them as they are non smoking rooms.   I checked in and they gave me a King Size room on the 3rd floor.  
+I opened the door and it smelled like bleach and cigarettes.  I went down and said I needed a new room because someone smoked in the room and they used bleach to cover the smell.  The frt desk clerk said OH that's not cigarettes, that's Mildew because they have had a lot of rain.  I insisted I needed a new room.  He gave me one on the 2nd floor.  It smelled but wasn't as bad.  I was tired and took it.  Tried to open the window, but it was screwed close.  I turned on the AC and lowered the temp to 66 and turned on the Bathroom fan.  I ran it  all night long.  After about 2 days it started to loose the smell.  I would have switched hotels, but all the hotels around there were booked because of some college graduations.  
+I paid around $680.00 and half expected they would give me a partial refund because of my complaints.  I would never stay there.  Driving home and stayed at...I just stayed 6 days at this Holiday Inn Express.  I am not a complainer, but this place was the worst Holiday Inn I have ever stayed at.  I normally stay in Holiday Inns and have for over 40 years.   I have Allergies and Asthma so I like them as they are non smoking rooms.   I checked in and they gave me a King Size room on the 3rd floor.  I opened the door and it smelled like bleach and cigarettes.  I went down and said I needed a new room because someone smoked in the room and they used bleach to cover the smell.  The frt desk clerk said OH that's not cigarettes, that's Mildew because they have had a lot of rain.  I insisted I needed a new room.  He gave me one on the 2nd floor.  It smelled but wasn't as bad.  I was tired and took it.  Tried to open the window, but it was screwed close.  I turned on the AC and lowered the temp to 66 and turned on the Bathroom fan.  I ran it  all night long.  After about 2 days it started to loose the smell.  I would have switched hotels, but all the hotels around there were booked because of some college graduations.  I paid around $680.00 and half expected they would give me a partial refund because of my complaints.  I would never stay there.  Driving home and stayed at other brand name hotels.Never stay at this place.  I had 4 friends who stayed there too.  They were all disappointed too.  The maid service sucked, 2 of the days they never emptied my waste baskets or gave ew towels and shampoo.  There was dust on the dresser and desk, around the bathtub there was black mold.  The Wi-Fi was bad, so I used my Hot Spot on my phone.  The pancake machine was broken.  I complained to the manager and he had a I don't care attitude.  I expected  some sort of refund or apology.  Nothing was said.   In My Opinion This hotel is Terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r240700868-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>240700868</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Wish that weekend breakfast were open longer</t>
+  </si>
+  <si>
+    <t>We were in the area for a wedding and didn't want to have to drive back to Houston late on a Saturday night so we reserved a room here. The hotel seems nice and relatively new and the room was what you should expect from a Holiday Inn express.My one complaint would be that the breakfast shuts down at 9:30 on the weekend. While I understand this closing time on a weekday, my experience at most all other similar properties is that weekend breakfast hours are extended by at least an hour. We did not wake up in time to have the breakfast, which presumably is one of the reasons the room rates seem a little on the high side for this region.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>budpatel60, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>We were in the area for a wedding and didn't want to have to drive back to Houston late on a Saturday night so we reserved a room here. The hotel seems nice and relatively new and the room was what you should expect from a Holiday Inn express.My one complaint would be that the breakfast shuts down at 9:30 on the weekend. While I understand this closing time on a weekday, my experience at most all other similar properties is that weekend breakfast hours are extended by at least an hour. We did not wake up in time to have the breakfast, which presumably is one of the reasons the room rates seem a little on the high side for this region.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r237032569-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>237032569</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay - Nice Value - Nice Hotel</t>
+  </si>
+  <si>
+    <t>My wife and I were in town for a wedding and this hotel was recommended to us. The room was clean, the bed was comfortable, and the room was quiet (except for the occasional stomping in the room above us). But, obviously, that was not the hotel's fault. The breakfast are was very clean and the breakfast bar was stocked with cereals, fresh fruits, bagels, rolls, eggs, sausage, etc. Also, tons of coffee and juices. As I said, this hotel was recommended to us and we would recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>budpatel60, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I were in town for a wedding and this hotel was recommended to us. The room was clean, the bed was comfortable, and the room was quiet (except for the occasional stomping in the room above us). But, obviously, that was not the hotel's fault. The breakfast are was very clean and the breakfast bar was stocked with cereals, fresh fruits, bagels, rolls, eggs, sausage, etc. Also, tons of coffee and juices. As I said, this hotel was recommended to us and we would recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r234927725-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>234927725</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel - Great Value</t>
+  </si>
+  <si>
+    <t>First and foremost - for a business traveler - good water pressure? (check)  good iron? (check) good air temp (check) - so far so good.  Those are the basics - now the extras - the rooms are large, the bathrooms are clean, the breakfast is good (enough), the bed is very comfortable, and the staff is courteous.  No problems.  Great stay.  Will stay here for sure next time I am in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>budpatel60, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2014</t>
+  </si>
+  <si>
+    <t>First and foremost - for a business traveler - good water pressure? (check)  good iron? (check) good air temp (check) - so far so good.  Those are the basics - now the extras - the rooms are large, the bathrooms are clean, the breakfast is good (enough), the bed is very comfortable, and the staff is courteous.  No problems.  Great stay.  Will stay here for sure next time I am in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r221608441-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>221608441</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>Great hotel in close proximity to Prairie View A&amp;M University. The rooms are very clean, spacious, ample parking and great service. The hotel is right near the highway so quick access to surrounding cities. This is a fairly new hotel, even has flat screen TVs.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r217162170-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>217162170</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Large room, very clean</t>
+  </si>
+  <si>
+    <t>Stayed only one night on business trip, but no complaints.  Room was very large by HIE standards with a nice bar/kitchenette area.  Breakfast well stocked and staff was friendly and efficient.  Would stay here again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r215084730-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>215084730</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Excellent service, worth my money</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel. I was so impressed with the service they provided. Everyone was very professional yet friendly. The breakfast they provided was great. I would recommend this hotel to everyone. It was a wonderful stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r181418197-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>181418197</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Not up to Holiday Inn standards</t>
+  </si>
+  <si>
+    <t>Furniture and cleanliness are up to Holiday Inn usual standards, but the wireless internet does not work on the third floor: the link is just too weak.At check in we asked for a room at the back side of the hotel, and the manager replied that it is very quiet in all rooms, and gave us a room next to the elevator and nextdoor to the ice machine. The noise of the ice machine was louder than the airco, and we were disturbed by it all night. I had made it clear that I had several hours jetlag, and as we checked in early (only one car on the parking lot), I cannot understand why the simple service of providing a quiet room could not be rendered.Breakfast at 9 am was spoiled by lukewarm coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>budpatel, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Furniture and cleanliness are up to Holiday Inn usual standards, but the wireless internet does not work on the third floor: the link is just too weak.At check in we asked for a room at the back side of the hotel, and the manager replied that it is very quiet in all rooms, and gave us a room next to the elevator and nextdoor to the ice machine. The noise of the ice machine was louder than the airco, and we were disturbed by it all night. I had made it clear that I had several hours jetlag, and as we checked in early (only one car on the parking lot), I cannot understand why the simple service of providing a quiet room could not be rendered.Breakfast at 9 am was spoiled by lukewarm coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r169885217-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>169885217</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Good stay for us</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for one night while attending a wedding.  The front desk staff were nice during check in and check out.  The hotel was very clean as well. The entire hotel is non-smoking which was a bonus for us.  All the rooms and hallways have smoke detectors and sprinklers.  Most people don't think about that, but I do.  
+Our second floor room was on the south side of the hotel.  This was a great room location because there's no noise from the parking lot.  The room itself was your typical hotel room.  There's a bar sink, coffee maker, free internet, safe, iron, and a flat screen tv.  The king size bed was very comfortable.  The only complaint I have is not being able to get the room cool enough.  There wasn't a ceiling fan in the room which would have helped.  It was in  the 90+ range outside.  The room wasn't hot, but it wasn't as cool as we like it.  Either way, it did not require a phone call to the front desk.  The elevator seemed a bit noisy, so I suggest you get your room away from the elevator.  Our room was at the end of the hallway so it was very quiet.
+Breakfast was served from 6:30am to 9:30am in the dining area.  The food sits in warming trays, but was very fresh and tasted good when we ate (7am).  Breakfast consisted of...My wife and I stayed here for one night while attending a wedding.  The front desk staff were nice during check in and check out.  The hotel was very clean as well. The entire hotel is non-smoking which was a bonus for us.  All the rooms and hallways have smoke detectors and sprinklers.  Most people don't think about that, but I do.  Our second floor room was on the south side of the hotel.  This was a great room location because there's no noise from the parking lot.  The room itself was your typical hotel room.  There's a bar sink, coffee maker, free internet, safe, iron, and a flat screen tv.  The king size bed was very comfortable.  The only complaint I have is not being able to get the room cool enough.  There wasn't a ceiling fan in the room which would have helped.  It was in  the 90+ range outside.  The room wasn't hot, but it wasn't as cool as we like it.  Either way, it did not require a phone call to the front desk.  The elevator seemed a bit noisy, so I suggest you get your room away from the elevator.  Our room was at the end of the hallway so it was very quiet.Breakfast was served from 6:30am to 9:30am in the dining area.  The food sits in warming trays, but was very fresh and tasted good when we ate (7am).  Breakfast consisted of scrambled eggs, sausage patties, biscuits, gravy, pancakes, and various pastries.  Coffee, milk, and juice are there as well.  Overall, we thought the breakfast was good especially since there's nothing else in Waller.This Holiday Inn was a nice stay for us.  We've had some bad experiences with Holiday Inn, but this visit was a good one.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for one night while attending a wedding.  The front desk staff were nice during check in and check out.  The hotel was very clean as well. The entire hotel is non-smoking which was a bonus for us.  All the rooms and hallways have smoke detectors and sprinklers.  Most people don't think about that, but I do.  
+Our second floor room was on the south side of the hotel.  This was a great room location because there's no noise from the parking lot.  The room itself was your typical hotel room.  There's a bar sink, coffee maker, free internet, safe, iron, and a flat screen tv.  The king size bed was very comfortable.  The only complaint I have is not being able to get the room cool enough.  There wasn't a ceiling fan in the room which would have helped.  It was in  the 90+ range outside.  The room wasn't hot, but it wasn't as cool as we like it.  Either way, it did not require a phone call to the front desk.  The elevator seemed a bit noisy, so I suggest you get your room away from the elevator.  Our room was at the end of the hallway so it was very quiet.
+Breakfast was served from 6:30am to 9:30am in the dining area.  The food sits in warming trays, but was very fresh and tasted good when we ate (7am).  Breakfast consisted of...My wife and I stayed here for one night while attending a wedding.  The front desk staff were nice during check in and check out.  The hotel was very clean as well. The entire hotel is non-smoking which was a bonus for us.  All the rooms and hallways have smoke detectors and sprinklers.  Most people don't think about that, but I do.  Our second floor room was on the south side of the hotel.  This was a great room location because there's no noise from the parking lot.  The room itself was your typical hotel room.  There's a bar sink, coffee maker, free internet, safe, iron, and a flat screen tv.  The king size bed was very comfortable.  The only complaint I have is not being able to get the room cool enough.  There wasn't a ceiling fan in the room which would have helped.  It was in  the 90+ range outside.  The room wasn't hot, but it wasn't as cool as we like it.  Either way, it did not require a phone call to the front desk.  The elevator seemed a bit noisy, so I suggest you get your room away from the elevator.  Our room was at the end of the hallway so it was very quiet.Breakfast was served from 6:30am to 9:30am in the dining area.  The food sits in warming trays, but was very fresh and tasted good when we ate (7am).  Breakfast consisted of scrambled eggs, sausage patties, biscuits, gravy, pancakes, and various pastries.  Coffee, milk, and juice are there as well.  Overall, we thought the breakfast was good especially since there's nothing else in Waller.This Holiday Inn was a nice stay for us.  We've had some bad experiences with Holiday Inn, but this visit was a good one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r169550082-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>169550082</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>New &amp; clean</t>
+  </si>
+  <si>
+    <t>Visiting friends in Hockley Texas and this was the newest and closest hotel to their home.  The area and neighbor not really the best but location to our friends home was pretty great.  Not too far from a very nice and large outlet mall in Cypress and there lots of places to eat and shop in Cypress.  Check in was super fast. The bed was comfortable and room was clean. Breakfast was the usual free breakfast...no complaints there.  The cleaning lady was knocking on the door way too early to clean the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Visiting friends in Hockley Texas and this was the newest and closest hotel to their home.  The area and neighbor not really the best but location to our friends home was pretty great.  Not too far from a very nice and large outlet mall in Cypress and there lots of places to eat and shop in Cypress.  Check in was super fast. The bed was comfortable and room was clean. Breakfast was the usual free breakfast...no complaints there.  The cleaning lady was knocking on the door way too early to clean the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r157470509-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>157470509</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Niceness in the Middle of Nowhere</t>
+  </si>
+  <si>
+    <t>Okay Waller residents, don't write to me. Nowhere sounds harsh, but I mean it kindly. It's just to say it's not Dallas, Houston or S.A.  Besides, I want to let people know this is a great place. We had a wonderful stay! We were visiting college campuses and every time we told someone where we were staying, they'd say stuff like, "Why? That's in the country. You'll be in the middle of nowhere."  I'm glad we kept our reservations and decided to stay. Not only was the price good, the staff hospitality was great, the other people staying there were diverse and friendly, the free breakfast was pretty good AND there was a great outlet mall nearby!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>budpatel, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Okay Waller residents, don't write to me. Nowhere sounds harsh, but I mean it kindly. It's just to say it's not Dallas, Houston or S.A.  Besides, I want to let people know this is a great place. We had a wonderful stay! We were visiting college campuses and every time we told someone where we were staying, they'd say stuff like, "Why? That's in the country. You'll be in the middle of nowhere."  I'm glad we kept our reservations and decided to stay. Not only was the price good, the staff hospitality was great, the other people staying there were diverse and friendly, the free breakfast was pretty good AND there was a great outlet mall nearby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r143006971-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>143006971</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>Clean rooms...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at this hotel for two nights for the Texas Renaissance Festival. Check in was good and the front desk guy was awesome. Rooms were big and spotless. We didn't use the pool but it looked nice. We also didn't eat the free breakfast so I can't comment on that. My only problem was the Internet was incredibly slow. Overall it was a nice hotel and we would stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r129204512-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>129204512</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Surprising gem in Waller</t>
+  </si>
+  <si>
+    <t>First, dont ever try to travel to Houston on May 1st.  There is a huge energy conference and every room, and I do mean EVERY room, was booked in the city.  Waller is about 40 miles outside of Houston and I was forced to stay here.  However, this hotel was a real find.  The staf is really friendly and helpful, and the hotel is clean and of a standard I would associate with a much more upscale brand than Holiday Inn Express.  My room has a nice wet bar with fridge, safe, etc. and is very clean and comfortable.  I cant say enough good things about the staff either.  Really a great find.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, dont ever try to travel to Houston on May 1st.  There is a huge energy conference and every room, and I do mean EVERY room, was booked in the city.  Waller is about 40 miles outside of Houston and I was forced to stay here.  However, this hotel was a real find.  The staf is really friendly and helpful, and the hotel is clean and of a standard I would associate with a much more upscale brand than Holiday Inn Express.  My room has a nice wet bar with fridge, safe, etc. and is very clean and comfortable.  I cant say enough good things about the staff either.  Really a great find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r86947023-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>86947023</t>
+  </si>
+  <si>
+    <t>11/13/2010</t>
+  </si>
+  <si>
+    <t>Average Hotel. Clean and Convenient to the Area</t>
+  </si>
+  <si>
+    <t>The hotel is average and about what I would expect from a Holiday Inn. The area is not exactly a tourists' paradise but for business I would recommend this hotel. It is one of the few hotels that actually has HIGH SPEED internet. The rooms are very clean and well kept. I have stayed here twice and to my way of thinking the regular room is better than the suite. The breakfast is typical and typically "no service"  Holiday Inn. The only downsides were a long wait to check out  when leaving and a non working business center printer. On checkout there was only one staff member on duty and a queue formed while she was busy elsewhere. Maybe Holiday Inn should look into express checkout.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>The hotel is average and about what I would expect from a Holiday Inn. The area is not exactly a tourists' paradise but for business I would recommend this hotel. It is one of the few hotels that actually has HIGH SPEED internet. The rooms are very clean and well kept. I have stayed here twice and to my way of thinking the regular room is better than the suite. The breakfast is typical and typically "no service"  Holiday Inn. The only downsides were a long wait to check out  when leaving and a non working business center printer. On checkout there was only one staff member on duty and a queue formed while she was busy elsewhere. Maybe Holiday Inn should look into express checkout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r86434630-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>86434630</t>
+  </si>
+  <si>
+    <t>11/08/2010</t>
+  </si>
+  <si>
+    <t>Clean , comfortable and convenient</t>
+  </si>
+  <si>
+    <t>Our football team recently stayed at the Holiday Inn Express in Waller, Texas. We were very pleased with our experience and will definitely stay there again. The front desk staff was friendly and helpful. The rooms were very clean, quiet and the beds were comfortable. We enjoyed the big screen tv in the lounge around (tuned to football of course) and appreciated the variety of offerings at the free breakfast bar. The location is convenient to shopping and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r82684821-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>82684821</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This hotel is new. I really enjoyed the stay. The hotel was very clean. The room was very nice with microwave, Fridge in room. Bathroom was nice and clean. So overall I enjoyed my stay here and would stay again.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r63129027-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>63129027</t>
+  </si>
+  <si>
+    <t>05/03/2010</t>
+  </si>
+  <si>
+    <t>Nice, Quiet and very Clean!</t>
+  </si>
+  <si>
+    <t>The owner and staff of this hotel went out of their way to make sure that my family and I had a very comfortable and enjoyable stay.  The hotel is in pristine condition and have large well appointed rooms with plasma T.V.'s and extremely comfortable beds (and bedding).  Also, the hotel offers a nice breakfast, has a roomy fitness center and a very clean swimming pool!   The hotel is also very quiet ; you can not hear any road noise or noise from Highway 6.  Lastly, there is not a restaurant on site but several are located just adjacent and across the street from the hotel and most offer delivery service!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>The owner and staff of this hotel went out of their way to make sure that my family and I had a very comfortable and enjoyable stay.  The hotel is in pristine condition and have large well appointed rooms with plasma T.V.'s and extremely comfortable beds (and bedding).  Also, the hotel offers a nice breakfast, has a roomy fitness center and a very clean swimming pool!   The hotel is also very quiet ; you can not hear any road noise or noise from Highway 6.  Lastly, there is not a restaurant on site but several are located just adjacent and across the street from the hotel and most offer delivery service!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2037,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2069,4213 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>229</v>
+      </c>
+      <c r="X23" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>238</v>
+      </c>
+      <c r="X24" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>262</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>263</v>
+      </c>
+      <c r="X27" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>262</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>271</v>
+      </c>
+      <c r="X28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s">
+        <v>296</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>297</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>298</v>
+      </c>
+      <c r="X31" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>298</v>
+      </c>
+      <c r="X32" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" t="s">
+        <v>311</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O34" t="s">
+        <v>320</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>321</v>
+      </c>
+      <c r="X34" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" t="s">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s">
+        <v>328</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>337</v>
+      </c>
+      <c r="J37" t="s">
+        <v>338</v>
+      </c>
+      <c r="K37" t="s">
+        <v>339</v>
+      </c>
+      <c r="L37" t="s">
+        <v>340</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>341</v>
+      </c>
+      <c r="X37" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
+        <v>348</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>349</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>351</v>
+      </c>
+      <c r="J39" t="s">
+        <v>352</v>
+      </c>
+      <c r="K39" t="s">
+        <v>353</v>
+      </c>
+      <c r="L39" t="s">
+        <v>354</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>349</v>
+      </c>
+      <c r="O39" t="s">
+        <v>137</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" t="s">
+        <v>359</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>349</v>
+      </c>
+      <c r="O40" t="s">
+        <v>360</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>366</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s">
+        <v>371</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s">
+        <v>376</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>377</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>392</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>393</v>
+      </c>
+      <c r="X45" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>397</v>
+      </c>
+      <c r="J46" t="s">
+        <v>398</v>
+      </c>
+      <c r="K46" t="s">
+        <v>399</v>
+      </c>
+      <c r="L46" t="s">
+        <v>400</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>392</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>401</v>
+      </c>
+      <c r="X46" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>405</v>
+      </c>
+      <c r="J47" t="s">
+        <v>406</v>
+      </c>
+      <c r="K47" t="s">
+        <v>407</v>
+      </c>
+      <c r="L47" t="s">
+        <v>408</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>409</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>410</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>411</v>
+      </c>
+      <c r="J48" t="s">
+        <v>412</v>
+      </c>
+      <c r="K48" t="s">
+        <v>413</v>
+      </c>
+      <c r="L48" t="s">
+        <v>414</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>415</v>
+      </c>
+      <c r="X48" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>418</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>419</v>
+      </c>
+      <c r="J49" t="s">
+        <v>420</v>
+      </c>
+      <c r="K49" t="s">
+        <v>421</v>
+      </c>
+      <c r="L49" t="s">
+        <v>422</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>423</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>424</v>
+      </c>
+      <c r="X49" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>428</v>
+      </c>
+      <c r="J50" t="s">
+        <v>429</v>
+      </c>
+      <c r="K50" t="s">
+        <v>430</v>
+      </c>
+      <c r="L50" t="s">
+        <v>431</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>432</v>
+      </c>
+      <c r="O50" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>433</v>
+      </c>
+      <c r="X50" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>437</v>
+      </c>
+      <c r="J51" t="s">
+        <v>438</v>
+      </c>
+      <c r="K51" t="s">
+        <v>439</v>
+      </c>
+      <c r="L51" t="s">
+        <v>440</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>441</v>
+      </c>
+      <c r="O51" t="s">
+        <v>137</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>442</v>
+      </c>
+      <c r="X51" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>445</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>446</v>
+      </c>
+      <c r="J52" t="s">
+        <v>447</v>
+      </c>
+      <c r="K52" t="s">
+        <v>448</v>
+      </c>
+      <c r="L52" t="s">
+        <v>449</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>441</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>450</v>
+      </c>
+      <c r="X52" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>453</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>454</v>
+      </c>
+      <c r="J53" t="s">
+        <v>455</v>
+      </c>
+      <c r="K53" t="s">
+        <v>456</v>
+      </c>
+      <c r="L53" t="s">
+        <v>457</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>458</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>459</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>460</v>
+      </c>
+      <c r="J54" t="s">
+        <v>461</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
+        <v>463</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>464</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>465</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>466</v>
+      </c>
+      <c r="J55" t="s">
+        <v>467</v>
+      </c>
+      <c r="K55" t="s">
+        <v>468</v>
+      </c>
+      <c r="L55" t="s">
+        <v>469</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>464</v>
+      </c>
+      <c r="O55" t="s">
+        <v>137</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>471</v>
+      </c>
+      <c r="J56" t="s">
+        <v>472</v>
+      </c>
+      <c r="K56" t="s">
+        <v>473</v>
+      </c>
+      <c r="L56" t="s">
+        <v>474</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>475</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>476</v>
+      </c>
+      <c r="X56" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>479</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" t="s">
+        <v>481</v>
+      </c>
+      <c r="K57" t="s">
+        <v>482</v>
+      </c>
+      <c r="L57" t="s">
+        <v>483</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>484</v>
+      </c>
+      <c r="O57" t="s">
+        <v>320</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>486</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>487</v>
+      </c>
+      <c r="J58" t="s">
+        <v>488</v>
+      </c>
+      <c r="K58" t="s">
+        <v>489</v>
+      </c>
+      <c r="L58" t="s">
+        <v>490</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>484</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>491</v>
+      </c>
+      <c r="X58" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>494</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>495</v>
+      </c>
+      <c r="J59" t="s">
+        <v>496</v>
+      </c>
+      <c r="K59" t="s">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s">
+        <v>498</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>499</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>500</v>
+      </c>
+      <c r="X59" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>507</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J61" t="s">
+        <v>509</v>
+      </c>
+      <c r="K61" t="s">
+        <v>510</v>
+      </c>
+      <c r="L61" t="s">
+        <v>511</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>513</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>514</v>
+      </c>
+      <c r="J62" t="s">
+        <v>515</v>
+      </c>
+      <c r="K62" t="s">
+        <v>516</v>
+      </c>
+      <c r="L62" t="s">
+        <v>517</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>518</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>520</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>521</v>
+      </c>
+      <c r="J63" t="s">
+        <v>522</v>
+      </c>
+      <c r="K63" t="s">
+        <v>523</v>
+      </c>
+      <c r="L63" t="s">
+        <v>524</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>518</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>525</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>526</v>
+      </c>
+      <c r="J64" t="s">
+        <v>527</v>
+      </c>
+      <c r="K64" t="s">
+        <v>528</v>
+      </c>
+      <c r="L64" t="s">
+        <v>529</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>530</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>531</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65" t="s">
+        <v>533</v>
+      </c>
+      <c r="K65" t="s">
+        <v>534</v>
+      </c>
+      <c r="L65" t="s">
+        <v>535</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>536</v>
+      </c>
+      <c r="O65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_342.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_342.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="884">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,201 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r614470789-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>56840</t>
+  </si>
+  <si>
+    <t>1382735</t>
+  </si>
+  <si>
+    <t>614470789</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>Totally satisfied</t>
+  </si>
+  <si>
+    <t>My family and I were very much loved our stay at this place. The breakfast was really good and cinnabons are so delicious. The staff were great and we can't ask for more. We highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r596809577-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>596809577</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Staff super friendly they helped in a bussines trip</t>
+  </si>
+  <si>
+    <t>I was a pleasure to stay at this hotel the staff helped us to get cables and other needs while on a business trip, breakfast was good and clean rooms. great hotel.I definitely recommend this place the room was nice and they also allowed the meeting for a few minutes at no extra cost using their facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>I was a pleasure to stay at this hotel the staff helped us to get cables and other needs while on a business trip, breakfast was good and clean rooms. great hotel.I definitely recommend this place the room was nice and they also allowed the meeting for a few minutes at no extra cost using their facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r612427254-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>612427254</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Good trip, nice hotel</t>
+  </si>
+  <si>
+    <t>Our family vacation was great and we found the best hotel in Waller for a very good price. We loved the area, the restaurants were great and our vacation was really nice. This is smal town, people at the hotel are very helpful with directions. I like the hotel very mch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Our family vacation was great and we found the best hotel in Waller for a very good price. We loved the area, the restaurants were great and our vacation was really nice. This is smal town, people at the hotel are very helpful with directions. I like the hotel very mch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r611994141-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>611994141</t>
+  </si>
+  <si>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>Overall experience - great</t>
+  </si>
+  <si>
+    <t>Nice and comfortable beds, rooms are more psacious than other hotel in this area. The parking space is plenty and the food is good. We stayed in a group and we felt safe and had a reat time here. Highly recommned this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice and comfortable beds, rooms are more psacious than other hotel in this area. The parking space is plenty and the food is good. We stayed in a group and we felt safe and had a reat time here. Highly recommned this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r610671727-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>610671727</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Good place for Prairie View parents</t>
+  </si>
+  <si>
+    <t>This place is great because of two reasons, very close to the PV univ. and also very reasonable price. I stayed here many times and always found the quality to be perfect. The accom., food and staff are all superb.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>This place is great because of two reasons, very close to the PV univ. and also very reasonable price. I stayed here many times and always found the quality to be perfect. The accom., food and staff are all superb.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r609698771-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>609698771</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Amazing place</t>
+  </si>
+  <si>
+    <t>The rooms, service and the breakfast are all very nice. I found the price to be reasonable. They have summer specials going now. This hotel is very close to Prairie View A&amp;M Univ. I like this place and have been a repeated guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms, service and the breakfast are all very nice. I found the price to be reasonable. They have summer specials going now. This hotel is very close to Prairie View A&amp;M Univ. I like this place and have been a repeated guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r605311798-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>605311798</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>My trip was great because of the excellent accommodation at the hotel. I found the right hotel for my stays. The rooms were clean, staff were very professional and always very attentive. I will be back here for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>My trip was great because of the excellent accommodation at the hotel. I found the right hotel for my stays. The rooms were clean, staff were very professional and always very attentive. I will be back here for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r603380468-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>603380468</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Perfect for team accomodation</t>
+  </si>
+  <si>
+    <t>We stayed here in a group and everything was excellent. The whole group was very relaxed and the check-in was very smooth. The breakfast was plenty and the hotel crew prepared everything way ahead of time per our request. The management team is very nice and I highly recommend the hotel to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here in a group and everything was excellent. The whole group was very relaxed and the check-in was very smooth. The breakfast was plenty and the hotel crew prepared everything way ahead of time per our request. The management team is very nice and I highly recommend the hotel to everyone.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r601282291-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
-    <t>56840</t>
-  </si>
-  <si>
-    <t>1382735</t>
-  </si>
-  <si>
     <t>601282291</t>
   </si>
   <si>
@@ -171,16 +354,10 @@
     <t>Staff and service were both awesome. I would stay here again without any question. Staff were especially helpful in getting us into our room earlier than check-in time. They even called us to our room to see if the comfort and quality are good. I am impressed.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2018</t>
   </si>
   <si>
     <t>Staff and service were both awesome. I would stay here again without any question. Staff were especially helpful in getting us into our room earlier than check-in time. They even called us to our room to see if the comfort and quality are good. I am impressed.More</t>
@@ -201,13 +378,10 @@
     <t>Very clean hotel - rooms are clean, bathrooms are nice and amenities are great. The hotel is located between Prairie View A&amp;M Univ. and Goodman-Daikin facility. They are always busy but one of the best in Cypress, TX area. I like the area because it is away from the highway and very quiet for me to relax.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
   </si>
   <si>
     <t>Very clean hotel - rooms are clean, bathrooms are nice and amenities are great. The hotel is located between Prairie View A&amp;M Univ. and Goodman-Daikin facility. They are always busy but one of the best in Cypress, TX area. I like the area because it is away from the highway and very quiet for me to relax.More</t>
@@ -228,15 +402,63 @@
     <t>I really was very happy with my stay here. The bed and pillows are very comfortable. The staff really were helpful, breakfast was awesome. I am sure that I will be coming back here for my next business trip.MoreShow less</t>
   </si>
   <si>
-    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2018</t>
   </si>
   <si>
     <t>I really was very happy with my stay here. The bed and pillows are very comfortable. The staff really were helpful, breakfast was awesome. I am sure that I will be coming back here for my next business trip.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r595688755-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>595688755</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Good value and great location</t>
+  </si>
+  <si>
+    <t>Hotel lobby and room were nice, The breakfast was very good and they have a decent gym. Overall, an excellent value for the area. Also, it's among the few hotels in the area that aren't directly facing the freeway, so there is no traffic noise..MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Hotel lobby and room were nice, The breakfast was very good and they have a decent gym. Overall, an excellent value for the area. Also, it's among the few hotels in the area that aren't directly facing the freeway, so there is no traffic noise..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r593072907-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>593072907</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Great summer vacation at Holiday Inn, Waller</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 2 nights as part of our vacation this year. The hotel seems to be new and the service was awesome. They really made us feel at home. The staff at the front desk was fantastic and the rooms are impeccable. I really like this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 2 nights as part of our vacation this year. The hotel seems to be new and the service was awesome. They really made us feel at home. The staff at the front desk was fantastic and the rooms are impeccable. I really like this place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r592587885-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -250,9 +472,6 @@
   </si>
   <si>
     <t>The hotel is simply the best and the staff are really great. The cleanliness is one of the main reason why I keep coming back to stay here. This place is very close to my work and one of the in Houston. They have recently upgraded the breakfast and it is awesome. I would like to recommend this place to all.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2018</t>
   </si>
   <si>
     <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 3, 2018</t>
@@ -305,6 +524,62 @@
     <t>I was not sure about this place but was happy with my stay. The staff are very nice and helpfull, the breakfast was good enough, plastic plates and cutlery, but no big deal. I would stay there again if on a business trip as it is a good location for my company.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r586459407-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>586459407</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Great experience for my family</t>
+  </si>
+  <si>
+    <t>I have been coming here every summer with my kids. The hotel has a nice and quiet pool area. The rooms are fantastic and breakfast (buffet) is more than we can handle. The staff are very helpful all the time. This place is the only nice place around here, most of the hotels in the city are crowded and more expensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>I have been coming here every summer with my kids. The hotel has a nice and quiet pool area. The rooms are fantastic and breakfast (buffet) is more than we can handle. The staff are very helpful all the time. This place is the only nice place around here, most of the hotels in the city are crowded and more expensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r586231231-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>586231231</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Avoid in summer</t>
+  </si>
+  <si>
+    <t>The common areas are clean, the staff friendly. Unfortunately, you don't get to sleep in the hallway. My room smelled like a dank athletic sock because the AC had been turned off in it for too long. I seriously considered relocating inside the hotel until I found out from my colleague that his room was no better. 
+I tried drying the place out for several hours but the smell never went away. For all I know the floor was already growing something. FWIW, the window AC vent damper was closed and the indoor heat exchanger had a nice collection of mold growing on it. 
+Anyhow, later that evening I decided to shut the Room AC down and hit the heating mode button by accident. Well, that triggered a big puff of smoke (because the heating coil was filthy) which then triggered the smoke alarm. Thankfully, the alarm shut off after 30 seconds. The acrid smell didn't leave the room for a long time, however.
+So, if you can get a frequently-used room, this place may be OK. The fact that they rented a room so smelly that the help left the toilet fan running when I entered speaks to the priorities of the place. The Mexican restaurant across the street is friendly, quick, and quite pleasant.
+There aren't a lot of choices around Waller, TX but there must be better ones. Waller TX enjoys a climate where dehumidifiers are really...The common areas are clean, the staff friendly. Unfortunately, you don't get to sleep in the hallway. My room smelled like a dank athletic sock because the AC had been turned off in it for too long. I seriously considered relocating inside the hotel until I found out from my colleague that his room was no better. I tried drying the place out for several hours but the smell never went away. For all I know the floor was already growing something. FWIW, the window AC vent damper was closed and the indoor heat exchanger had a nice collection of mold growing on it. Anyhow, later that evening I decided to shut the Room AC down and hit the heating mode button by accident. Well, that triggered a big puff of smoke (because the heating coil was filthy) which then triggered the smoke alarm. Thankfully, the alarm shut off after 30 seconds. The acrid smell didn't leave the room for a long time, however.So, if you can get a frequently-used room, this place may be OK. The fact that they rented a room so smelly that the help left the toilet fan running when I entered speaks to the priorities of the place. The Mexican restaurant across the street is friendly, quick, and quite pleasant.There aren't a lot of choices around Waller, TX but there must be better ones. Waller TX enjoys a climate where dehumidifiers are really needed if the hotel room isn't used for a while or the place will just smell like black mold is growing everywhere. Management can simply use its nose to figure out which rooms need to be dewatered.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>The common areas are clean, the staff friendly. Unfortunately, you don't get to sleep in the hallway. My room smelled like a dank athletic sock because the AC had been turned off in it for too long. I seriously considered relocating inside the hotel until I found out from my colleague that his room was no better. 
+I tried drying the place out for several hours but the smell never went away. For all I know the floor was already growing something. FWIW, the window AC vent damper was closed and the indoor heat exchanger had a nice collection of mold growing on it. 
+Anyhow, later that evening I decided to shut the Room AC down and hit the heating mode button by accident. Well, that triggered a big puff of smoke (because the heating coil was filthy) which then triggered the smoke alarm. Thankfully, the alarm shut off after 30 seconds. The acrid smell didn't leave the room for a long time, however.
+So, if you can get a frequently-used room, this place may be OK. The fact that they rented a room so smelly that the help left the toilet fan running when I entered speaks to the priorities of the place. The Mexican restaurant across the street is friendly, quick, and quite pleasant.
+There aren't a lot of choices around Waller, TX but there must be better ones. Waller TX enjoys a climate where dehumidifiers are really...The common areas are clean, the staff friendly. Unfortunately, you don't get to sleep in the hallway. My room smelled like a dank athletic sock because the AC had been turned off in it for too long. I seriously considered relocating inside the hotel until I found out from my colleague that his room was no better. I tried drying the place out for several hours but the smell never went away. For all I know the floor was already growing something. FWIW, the window AC vent damper was closed and the indoor heat exchanger had a nice collection of mold growing on it. Anyhow, later that evening I decided to shut the Room AC down and hit the heating mode button by accident. Well, that triggered a big puff of smoke (because the heating coil was filthy) which then triggered the smoke alarm. Thankfully, the alarm shut off after 30 seconds. The acrid smell didn't leave the room for a long time, however.So, if you can get a frequently-used room, this place may be OK. The fact that they rented a room so smelly that the help left the toilet fan running when I entered speaks to the priorities of the place. The Mexican restaurant across the street is friendly, quick, and quite pleasant.There aren't a lot of choices around Waller, TX but there must be better ones. Waller TX enjoys a climate where dehumidifiers are really needed if the hotel room isn't used for a while or the place will just smell like black mold is growing everywhere. Management can simply use its nose to figure out which rooms need to be dewatered.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r580896399-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -386,6 +661,54 @@
     <t>I spent the relaxing night here. I am very pleased with the breakfast choices. Clean rooms and exceptionally helpful staff. The pool was very clean and area was quiet. I will definitely stay here again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r569196170-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>569196170</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Really commendable</t>
+  </si>
+  <si>
+    <t>I stayed here because it is very close to my work but I was very impressed by the fact that the hotel is extremely clean and very well maintained. The food quality is also good, the staff are very friendly. Now I know where to stay when I am in Cypress, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here because it is very close to my work but I was very impressed by the fact that the hotel is extremely clean and very well maintained. The food quality is also good, the staff are very friendly. Now I know where to stay when I am in Cypress, TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r566986430-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>566986430</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>I checked in very late. I noticed the light in the entrance did not work. Then I turned the TV on, it stayed on for two minutes the picture froze and the TV turned off. I tried turning it on again several times with no success. In the morning I notified the receptionist and left for work. Once I came back I found the room was not cleaned at all. Not touched. I called the receptionist and asked him to resolve. After some time he called back and offered 500 points for the trouble. The TV worked for 20 minutes and froze and turned off again. I was very frustrated and asked the recepcionist to talk with a manager while checking out. The receptionist told me there is no manager in the hotel at the moment. I asked her to note the issues and to ask the manager to provide a one night refund for his negligence and lack of adequate service. She promised a manager will call me with answers, no one called. I will not return to this hotel, would recommend the same to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded March 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2018</t>
+  </si>
+  <si>
+    <t>I checked in very late. I noticed the light in the entrance did not work. Then I turned the TV on, it stayed on for two minutes the picture froze and the TV turned off. I tried turning it on again several times with no success. In the morning I notified the receptionist and left for work. Once I came back I found the room was not cleaned at all. Not touched. I called the receptionist and asked him to resolve. After some time he called back and offered 500 points for the trouble. The TV worked for 20 minutes and froze and turned off again. I was very frustrated and asked the recepcionist to talk with a manager while checking out. The receptionist told me there is no manager in the hotel at the moment. I asked her to note the issues and to ask the manager to provide a one night refund for his negligence and lack of adequate service. She promised a manager will call me with answers, no one called. I will not return to this hotel, would recommend the same to others.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r562745683-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -467,6 +790,60 @@
     <t>I’ll keep it short. Same problem I run into every time, super slow internet speeds. Whether it be WiFi or LAN cable connection. This Holiday Inn was no exception. Slow internet speeds. I rely on the speed for my daily reports I have to file and the such. I have to use hotspot 98% of time. IHG family of hotels needs to invest more money into much better internet than their current garbage.   Also another usual occurrence, the AC wouldn’t cool below 72 in my room(325).Wish they would pay attention to the meaningful details.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r539166505-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>539166505</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Clean and quiet hotel</t>
+  </si>
+  <si>
+    <t>I love the fact the hotel is kept very clean and the rooms are very quiet (great for relaxing). The price is very reasonable and breakfast has warm food, not just cold continental breakfast. i was very happy with the way front desk took care of our issues although it was not their responsibility. I will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>I love the fact the hotel is kept very clean and the rooms are very quiet (great for relaxing). The price is very reasonable and breakfast has warm food, not just cold continental breakfast. i was very happy with the way front desk took care of our issues although it was not their responsibility. I will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r537209867-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>537209867</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>PVHC2K17 and This Roach Motel</t>
+  </si>
+  <si>
+    <t>Stayed here during Prairie View Homecoming 2017. Room was average at first glance. Looked clean although it was a very strange smell in the hall way on the 2nd floor. Once friends and I were settled in the room the actual creatures that lived in the room started appearing one after one. Roaches!!! We immediately called downstairs to see if we could change rooms but of course since the hotel was sold out that was out of the question. The man at the desk suggested he could come “catch” them or spray bug spray. If you keep a can of bug spray at the front desk that tells me you guys have had this problem before. We tuffed it out moving our things out the room and just staying the night. That morning we checked out and complained to the manager and the owner. They offered 5000 pts (which neither of us were IHG members) or $50 off the room. Also stating this is our bug policy and this is all we can offer. Again if you have a bug policy that means you have a problem! This was not enough. The room should have been comped (refund)!!!! When we suggested this the owner told us we brought the bugs in!! After that there was no need to continue with Mr Vangir (?), the owner. We left and my friend reported it to her bank. DO NOT STAY AT THIS...Stayed here during Prairie View Homecoming 2017. Room was average at first glance. Looked clean although it was a very strange smell in the hall way on the 2nd floor. Once friends and I were settled in the room the actual creatures that lived in the room started appearing one after one. Roaches!!! We immediately called downstairs to see if we could change rooms but of course since the hotel was sold out that was out of the question. The man at the desk suggested he could come “catch” them or spray bug spray. If you keep a can of bug spray at the front desk that tells me you guys have had this problem before. We tuffed it out moving our things out the room and just staying the night. That morning we checked out and complained to the manager and the owner. They offered 5000 pts (which neither of us were IHG members) or $50 off the room. Also stating this is our bug policy and this is all we can offer. Again if you have a bug policy that means you have a problem! This was not enough. The room should have been comped (refund)!!!! When we suggested this the owner told us we brought the bugs in!! After that there was no need to continue with Mr Vangir (?), the owner. We left and my friend reported it to her bank. DO NOT STAY AT THIS HOTEL!!! The rates are jacked up around PV homecoming from $90 to $189 for a roach motel!!! For rude service and a disgusting atmosphere.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ishita K, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here during Prairie View Homecoming 2017. Room was average at first glance. Looked clean although it was a very strange smell in the hall way on the 2nd floor. Once friends and I were settled in the room the actual creatures that lived in the room started appearing one after one. Roaches!!! We immediately called downstairs to see if we could change rooms but of course since the hotel was sold out that was out of the question. The man at the desk suggested he could come “catch” them or spray bug spray. If you keep a can of bug spray at the front desk that tells me you guys have had this problem before. We tuffed it out moving our things out the room and just staying the night. That morning we checked out and complained to the manager and the owner. They offered 5000 pts (which neither of us were IHG members) or $50 off the room. Also stating this is our bug policy and this is all we can offer. Again if you have a bug policy that means you have a problem! This was not enough. The room should have been comped (refund)!!!! When we suggested this the owner told us we brought the bugs in!! After that there was no need to continue with Mr Vangir (?), the owner. We left and my friend reported it to her bank. DO NOT STAY AT THIS...Stayed here during Prairie View Homecoming 2017. Room was average at first glance. Looked clean although it was a very strange smell in the hall way on the 2nd floor. Once friends and I were settled in the room the actual creatures that lived in the room started appearing one after one. Roaches!!! We immediately called downstairs to see if we could change rooms but of course since the hotel was sold out that was out of the question. The man at the desk suggested he could come “catch” them or spray bug spray. If you keep a can of bug spray at the front desk that tells me you guys have had this problem before. We tuffed it out moving our things out the room and just staying the night. That morning we checked out and complained to the manager and the owner. They offered 5000 pts (which neither of us were IHG members) or $50 off the room. Also stating this is our bug policy and this is all we can offer. Again if you have a bug policy that means you have a problem! This was not enough. The room should have been comped (refund)!!!! When we suggested this the owner told us we brought the bugs in!! After that there was no need to continue with Mr Vangir (?), the owner. We left and my friend reported it to her bank. DO NOT STAY AT THIS HOTEL!!! The rates are jacked up around PV homecoming from $90 to $189 for a roach motel!!! For rude service and a disgusting atmosphere.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r532647508-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -482,9 +859,6 @@
     <t>Our room was very dirty with dirty socks and a refrigerator full of old food just to name a few of the nasty issues. The general manager called us after we left and "greatly apologized", and then offset our room by $25. Really? We won't stay there again. $100 is still too much to pay for such a bad experience.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Ishita K, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 14, 2017</t>
   </si>
   <si>
@@ -539,6 +913,57 @@
     <t>Stayed over the weekend for a wedding. Room was great. Larger then expected. Check in staff were extremely friendly. I will probably never be area again, but wanted to let management know staff doing a good jobMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r515027065-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>515027065</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swim with the kids </t>
+  </si>
+  <si>
+    <t>When staying in Waller there are only two choices and this one is ours. Helpful polite staff always here . This trip our very large clean room has two queens extra firm 4 good quality pillows  on each bed but no refrigerator or microwave it is newer but no USB ports . It has a gym a meeting room and an extra large eating area with multiple egg choices no waffle maker but a pancake maker at a push of a button but we enjoy the pool with the kids it is a decent size multiple places to step in and it has a long ramp in with a two sided rail that goes most of the length of the pool . I think this feature is a good idea people who find steps challenging or impossible will find it easier to get into the pool. So if you are passing through give it a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded August 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2017</t>
+  </si>
+  <si>
+    <t>When staying in Waller there are only two choices and this one is ours. Helpful polite staff always here . This trip our very large clean room has two queens extra firm 4 good quality pillows  on each bed but no refrigerator or microwave it is newer but no USB ports . It has a gym a meeting room and an extra large eating area with multiple egg choices no waffle maker but a pancake maker at a push of a button but we enjoy the pool with the kids it is a decent size multiple places to step in and it has a long ramp in with a two sided rail that goes most of the length of the pool . I think this feature is a good idea people who find steps challenging or impossible will find it easier to get into the pool. So if you are passing through give it a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r492787447-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>492787447</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Sevice was great!</t>
+  </si>
+  <si>
+    <t>The staff provided excellent service. The breakfast was awesome, the check-in and check-out was fast, no billing issues, they have a courtesy call to the room after I checked-in to see everything was okay with my room. I am impressed. Thanks to the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>The staff provided excellent service. The breakfast was awesome, the check-in and check-out was fast, no billing issues, they have a courtesy call to the room after I checked-in to see everything was okay with my room. I am impressed. Thanks to the staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r491532397-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -552,9 +977,6 @@
   </si>
   <si>
     <t>The room was bigger than I expected and smelled great. The hotel is very clean and that is what I care about. The room smelled great and the staff were very nice. My overall trip was very relaxing and comfortable. I would recommend this hotel to anyone.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2017</t>
   </si>
   <si>
     <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 10, 2017</t>
@@ -622,6 +1044,45 @@
     <t>When checking they lost our reservation took about 20 minutes to resolve the situation. Then walked in the room with food and drinks for our 2 day stay and come to find out THIS hotel does not have a microwave or refrigerator, so we had to eat all of our food or trash it. Went down stairs saturday morning for coffee and no coffee available till breakfast. Trust me it gets better, coming back to hotel Saturday night just pass the front door and there was a drug deal going on in the parking lot. I posted the same comments on the hotel site and it was not approved to be posted. Would not be going back to the hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r484697514-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>484697514</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Clean but not for sensitive noses</t>
+  </si>
+  <si>
+    <t>My husband and I actually drove out of our way to stay here because we like the Holiday Inn Express chain.  The young lady who helped us was very friendly and accommodated us even though they were busy and we didn't have a reservation.  The hotel looks well maintained; however, as soon as you walk in, you can tell they use heavy fragrances and harsh cleaning chemicals.  Luckily we don't have allergies but the first room we were put in smelled "wet" and it was right next to the elevators.  We asked for a different room and the front desk agent was very polite and kindly granted us their last room.  This room was decent but had a weird smell.  Sheets, floor and bathroom were clean. Nice amenities.  The smell was bothering me though so I took my husband's flashlight and looked in the A/C unit.  Ugh, there were two GROSS cocoon looking blobs of mold. It's clear based on both rooms smelling bad that the A/C units at this property are not on a regular maintenance schedule.  We would have left if we weren't so road weary and unfamiliar with the area. If management reads this review, please know the hotel is very nice aesthetically and your staff is terrific.  My suggestion would be to do something about the overly perfumery chemical smell and dirty A/C units.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I actually drove out of our way to stay here because we like the Holiday Inn Express chain.  The young lady who helped us was very friendly and accommodated us even though they were busy and we didn't have a reservation.  The hotel looks well maintained; however, as soon as you walk in, you can tell they use heavy fragrances and harsh cleaning chemicals.  Luckily we don't have allergies but the first room we were put in smelled "wet" and it was right next to the elevators.  We asked for a different room and the front desk agent was very polite and kindly granted us their last room.  This room was decent but had a weird smell.  Sheets, floor and bathroom were clean. Nice amenities.  The smell was bothering me though so I took my husband's flashlight and looked in the A/C unit.  Ugh, there were two GROSS cocoon looking blobs of mold. It's clear based on both rooms smelling bad that the A/C units at this property are not on a regular maintenance schedule.  We would have left if we weren't so road weary and unfamiliar with the area. If management reads this review, please know the hotel is very nice aesthetically and your staff is terrific.  My suggestion would be to do something about the overly perfumery chemical smell and dirty A/C units.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r484617304-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>484617304</t>
+  </si>
+  <si>
+    <t>Excellent for my business travel</t>
+  </si>
+  <si>
+    <t>This hotel was incredibly clean, staff was friendly and helpful.  I requested a room on a high floor and away from the elevator.  It was completely quiet - I never heard another person all night.  The room was large, with plenty of desk space, a counter with kitchen cabinets, small fridge, microwave, and Keurig coffee pot.  I had to leave before breakfast began, but they offered for me to at least have cereal and coffee if I wanted.  Front desk staff was helpful with some last minute printing I needed for my conference.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was incredibly clean, staff was friendly and helpful.  I requested a room on a high floor and away from the elevator.  It was completely quiet - I never heard another person all night.  The room was large, with plenty of desk space, a counter with kitchen cabinets, small fridge, microwave, and Keurig coffee pot.  I had to leave before breakfast began, but they offered for me to at least have cereal and coffee if I wanted.  Front desk staff was helpful with some last minute printing I needed for my conference.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r445323849-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -696,6 +1157,51 @@
     <t>We had a wonderful experience staying at this Holiday Inn! From the front desk receptionist to the cleanliness, and awesome breakfast, we would definitely return. It's in a quiet location off of the highway just close enough to a Buccee's and nearby shopping. Should we ever be headed this direction again, we'll definitely be returning to this Holiday Inn Express! :)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r438874080-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>438874080</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel and great staff</t>
+  </si>
+  <si>
+    <t>I am very happy and 100% satisfied as a guest. The staff treated me good and the hotel room was very comfortable. Excellent place to stay while attending business in the area. This place is very quiet and so it was very relaxing for me. I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am very happy and 100% satisfied as a guest. The staff treated me good and the hotel room was very comfortable. Excellent place to stay while attending business in the area. This place is very quiet and so it was very relaxing for me. I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r438587597-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>438587597</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>MrGG-Holiday-Inn-FM2920</t>
+  </si>
+  <si>
+    <t>We stayed in room 233 and unfortunately, the bathroom needs some attention.  The caulk around the corner-mounted soap dish and around the tub and walls is in serious need of bleaching/cleaning or complete replacement.  It was a horrible dark brown.  No small refrigerator in room.  Lots of electric plugs and Ethernet plug available, but the work table had a glass top that made it impossible to use an optical mouse.  I had to put a piece of paper on the table on which to roll the mouse.  The small room safe appeared to require a credit card for use instead of the room key.  Hot coffee was always available early in the breakfast area and the breakfast items were good.  The only problem is that the biscuits need a steamer to keep them moist; they got too hard sitting out.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed in room 233 and unfortunately, the bathroom needs some attention.  The caulk around the corner-mounted soap dish and around the tub and walls is in serious need of bleaching/cleaning or complete replacement.  It was a horrible dark brown.  No small refrigerator in room.  Lots of electric plugs and Ethernet plug available, but the work table had a glass top that made it impossible to use an optical mouse.  I had to put a piece of paper on the table on which to roll the mouse.  The small room safe appeared to require a credit card for use instead of the room key.  Hot coffee was always available early in the breakfast area and the breakfast items were good.  The only problem is that the biscuits need a steamer to keep them moist; they got too hard sitting out.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r436171524-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -735,9 +1241,6 @@
     <t>The place is convenient and quiet for the me relax. Staff is very helpful and the location is perfect. This a family friendly place and very safe. I will be back more stay as this works for me - price is fair.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 10, 2016</t>
   </si>
   <si>
@@ -771,6 +1274,39 @@
     <t>Need a place far enough away from the High prices of hotels supporting the Texas Renaissance festival, but close enough to have a short drive in the morning. Have found that Waller offers this. Had points available for a HI Express stay this year so we stayed there. Hotel is on upper scale of my recent HIE experiences. Room nice, service above normal, facilities in good shape. Business ctr was working for what I needed, Son used the gym. Enough elec outlets to support the modern traveling family. Breakfast an 8 on a 10 point scale. All 3 of us had trouble sleeping but nothing to lay blame on the room or hotel. No excessive noise from in the hotel or outside. We were on the bank building side of the hotel and it was a Sat/Sun night stay so nothing going on over there. Wedding party in hotel was not a problem at least where we heard them. Breakfast was a good full offering and it was kept well stock while I was there.  Pool was outside, I had hope for an inside pool. Yeah I could have looked first.  No hot tub, Again I could have looked first; but this trip was about location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r431659363-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>431659363</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Very friendly</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while attending a wedding nearby.  There were lots of people that were attending the wedding staying here.  The staff was very friendly and accommodating for all of us.  The room was spacious.  We had a king suite.  It had a large bathroom and a little kitchen with a mini fridge, sink and microwave.  The beds were very comfortable.  My only complaint is the lighting, especially in the bathroom was very dim.  It made it hard to apply makeup.  MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while attending a wedding nearby.  There were lots of people that were attending the wedding staying here.  The staff was very friendly and accommodating for all of us.  The room was spacious.  We had a king suite.  It had a large bathroom and a little kitchen with a mini fridge, sink and microwave.  The beds were very comfortable.  My only complaint is the lighting, especially in the bathroom was very dim.  It made it hard to apply makeup.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r431549690-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>431549690</t>
+  </si>
+  <si>
+    <t>Everything was nice!</t>
+  </si>
+  <si>
+    <t>I asked for a good hotel but I found a great one. The service and the location to work were very convenient for me. I like the hotel exterior and the delicious cinnamon roll in the morning. Everything was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>I asked for a good hotel but I found a great one. The service and the location to work were very convenient for me. I like the hotel exterior and the delicious cinnamon roll in the morning. Everything was nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r431325910-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -846,6 +1382,57 @@
     <t>I had a relaxed vacation mainly because of the quality of the service at this hotel. They have great staff and know how to take care of a guest, the front desk crew was very helpful. I would stay again anytime.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r415791626-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>415791626</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>OTR driver</t>
+  </si>
+  <si>
+    <t>Oh I expect more from a Holiday Inn. I guess the bathroom was the biggest letdown? My so cold I literally fell off the wall. The water didn't drain from the tub. And it was expensive. Seems like this property is doomed to be to be sold soon and transfer it into something more like a sleep in. I should say the rest of the room was fine up to regular Holiday Inn standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Tanvir S, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Oh I expect more from a Holiday Inn. I guess the bathroom was the biggest letdown? My so cold I literally fell off the wall. The water didn't drain from the tub. And it was expensive. Seems like this property is doomed to be to be sold soon and transfer it into something more like a sleep in. I should say the rest of the room was fine up to regular Holiday Inn standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r412779308-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>412779308</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>I had a great time!!!</t>
+  </si>
+  <si>
+    <t>The location and the comfort of the hotel are both great. I was very much relaxed and the staff took care of my needs. This place rocks! I recommend the hotel highly. I think this hotel deserves 10 out 10 in every category.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>The location and the comfort of the hotel are both great. I was very much relaxed and the staff took care of my needs. This place rocks! I recommend the hotel highly. I think this hotel deserves 10 out 10 in every category.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r403822758-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -861,9 +1448,6 @@
     <t>My trip was great and I was able to relax in total quietness. The hotel provided great service and comfort, I would like to thank the staff and would come back to stay here again. The hotel looks new.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Tanvir S, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded August 13, 2016</t>
   </si>
   <si>
@@ -927,6 +1511,48 @@
     <t>The room was very clean and the beds were extremely comfortable. The hotel is located about 4-5 miles from Prairie View A&amp; M university. This was very convenient for me. The staff of the hotel were very caring and everything inside the hotel looks new and recently upgraded.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r393880025-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>393880025</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Enjoyed a relaxing nights rest, very comfortable room, clean, and quiet, nice to have several tv station selections and HBO too.  Very polite staff. Did not try breakfast fare but looked adequate. Would definitely return to this hotel. Was able to check in early after a long drive also.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed a relaxing nights rest, very comfortable room, clean, and quiet, nice to have several tv station selections and HBO too.  Very polite staff. Did not try breakfast fare but looked adequate. Would definitely return to this hotel. Was able to check in early after a long drive also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r393733012-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>393733012</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Nice trip overall</t>
+  </si>
+  <si>
+    <t>My trip was great overall, the hotel was good and the my family was very happy. Our stay at the hotel was very satisfactory and we all had a great time during our stay, The pool was great and very quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>My trip was great overall, the hotel was good and the my family was very happy. Our stay at the hotel was very satisfactory and we all had a great time during our stay, The pool was great and very quiet.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r391032749-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -984,9 +1610,6 @@
     <t>This place has become my favorite. They know how to take care of guests. I like the rooms and especially the pillows, the food was as expected from any Holiday Inn Express. The caring staff and excellent service is commendable.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 1, 2016</t>
   </si>
   <si>
@@ -996,6 +1619,48 @@
     <t>This place has become my favorite. They know how to take care of guests. I like the rooms and especially the pillows, the food was as expected from any Holiday Inn Express. The caring staff and excellent service is commendable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r380826359-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>380826359</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Pretty but horrible</t>
+  </si>
+  <si>
+    <t>Dirty blood stained sheets, chemical smell, urine smell in bathroom. We had to go down and get fresh sheets. They wouldn't even bring them up. Middle of the night fire alarms went off with smoke in the hallway, whole 2nd floor evacuated. They never called 911, we had to call FD, apologies but nothing else. Front desk didn't even know we were experiencing an evacuation. They said it's all ok go back to the room. No FD still. We called them!! The hotels alarm system did not ring either to the front desk, or the FD! Appalling.  Next night fire alarm went off again. No explanation. Nothing. Owner offered me points. Wow. Not going back to that one ever!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tanvir S, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Dirty blood stained sheets, chemical smell, urine smell in bathroom. We had to go down and get fresh sheets. They wouldn't even bring them up. Middle of the night fire alarms went off with smoke in the hallway, whole 2nd floor evacuated. They never called 911, we had to call FD, apologies but nothing else. Front desk didn't even know we were experiencing an evacuation. They said it's all ok go back to the room. No FD still. We called them!! The hotels alarm system did not ring either to the front desk, or the FD! Appalling.  Next night fire alarm went off again. No explanation. Nothing. Owner offered me points. Wow. Not going back to that one ever!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r370245459-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>370245459</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Good sleep, great hotel</t>
+  </si>
+  <si>
+    <t>I rested very well, the hotel is new and the staff were awesome. They just installed new carpet and furniture. The room smelled great and breakfast was good. I like the hotel and its location, very quiet.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r366715437-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +1676,6 @@
     <t>I find the hotel fairly new and very clean. The breakfast was as i expected - warm and plenty. The staff were extremely courteous and helpful. I always stay in Holiday Inn hotels and I think this hotel is exceptionally nice.</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r362382824-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1718,36 @@
     <t>This older hotel has been redone. It looks nice and our king sized room had a kitchenette with microwave. However, our room smelled stale and mildewed even after running the fan all night. Television channels are very limited. Breakfast was fine. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r358192843-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>358192843</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Everything was great</t>
+  </si>
+  <si>
+    <t>My trip was very comforting because of the service I got from the staff at this hotel. i was very relaxed and room was clean, breakfast was plenty. I can not think of any better hotel for this price. The hotel looks new and the management seems to be very focused on guest well being.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r356196890-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>356196890</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel in the country</t>
+  </si>
+  <si>
+    <t>I rested well, rooms are spacious and very clean. The next morning, coffee and breakfast was great, I am pleased with the service. The hotel can hardly be seen from the highway, this is nice family friendly place.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r354328254-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1799,39 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r351421246-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>351421246</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Good play to stay</t>
+  </si>
+  <si>
+    <t>I love the pillows and the cleanliness of the hotel. The breakfast was decent and the staff were very nice. The hotel looks new and it is not expensive at all. Waller is a small town and very quiet place but I felt very safe.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r350382153-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>350382153</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Best hotel and great price</t>
+  </si>
+  <si>
+    <t>I stayed here before and the quality of service is always great. The hotel has gone thru some renovation and the staff are very caring. The hotel is in the middle of country and very quiet for relaxing.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r347382987-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1122,9 +1847,6 @@
     <t>I always have good stay at this hotel. The comfort of the room, caring staff and the breakfast are excellent. The hotel is very clean and the management is great. The general maanger is always there and very friendly. My family and I feel very welcome and safe at all time.</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r345402348-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1880,48 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r330039838-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>330039838</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Clean room, great price, caring staff</t>
+  </si>
+  <si>
+    <t>The hotel looks almost new. The price is $25-$30 cheaper than the city hotels towards Houston. The staff and the amenities were great. The room was very comfortable and had a fresh smell. In the morning, the hot breakfast was awesome, I really enjoyed the trip because of the hotel and would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r323690439-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>323690439</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>No hot tub</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last night.  We stayed there specifically because there was a hot tub next to the pool and we knew that after a long day at a local festival we would need to relax and work out the kinks.  Photos on the hotels.com website AND the Holiday Inn website AND the Travelocity website show a pool and hot tub for your location.  But there is no hot tub.The room was damp and the sheets for the pull out sofa had to be replaced because the ones we supplied had not been laundered.  We were treated well and the front desk guy was kind but he would not accommodate us from a king room to two-queen room because we had booked through hotels.com.  I can promise you that if we had stayed at a Hyatt chain or Hilton chain hotel we would have been accommodated.  They are happy to get business no matter which website we book from. But front desk guy made us feel like we were being punished for booking through hotels.com.  I offered to pay any difference but he said it was against policy.  Shame on them.  False advertising AND unaccommodating.I’ll never stay at Holiday Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last night.  We stayed there specifically because there was a hot tub next to the pool and we knew that after a long day at a local festival we would need to relax and work out the kinks.  Photos on the hotels.com website AND the Holiday Inn website AND the Travelocity website show a pool and hot tub for your location.  But there is no hot tub.The room was damp and the sheets for the pull out sofa had to be replaced because the ones we supplied had not been laundered.  We were treated well and the front desk guy was kind but he would not accommodate us from a king room to two-queen room because we had booked through hotels.com.  I can promise you that if we had stayed at a Hyatt chain or Hilton chain hotel we would have been accommodated.  They are happy to get business no matter which website we book from. But front desk guy made us feel like we were being punished for booking through hotels.com.  I offered to pay any difference but he said it was against policy.  Shame on them.  False advertising AND unaccommodating.I’ll never stay at Holiday Inn again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r321624366-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1173,9 +1937,6 @@
     <t>The front desk staff and cleaning staff were friendly. The room was ok. It was very clean, but had a very musty odor. The mattress was fairly comfortable. The pillows were still in good shape. Overall the experience was good. The room could use some updating though. MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded November 10, 2015</t>
   </si>
   <si>
@@ -1236,6 +1997,48 @@
     <t>Rooms were damp, had a bad odor and were full of mold. When we would leave and room and come back everything in the room would be wet. The room ceiling had dark spots all over it. Nice pool, nice continental breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r289220495-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>289220495</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Clean, peaceful and family friendly!</t>
+  </si>
+  <si>
+    <t>My family and I visited the Jelly Stone Park that is near this hotel, and needed a place to stay after our eventful day. We were pleasantly surprised that this hotel offered so many amenities. Our bed was super comfortable and the pillows were simply superb, my family and I had a great nights sleep. We look forward to coming back to this hotel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Tanvir S, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>My family and I visited the Jelly Stone Park that is near this hotel, and needed a place to stay after our eventful day. We were pleasantly surprised that this hotel offered so many amenities. Our bed was super comfortable and the pillows were simply superb, my family and I had a great nights sleep. We look forward to coming back to this hotel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r285572387-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>285572387</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>My husband and I went to Houston to visit my family. It was our first visit, but it won't be the last. Upon arrival, we were greeted by the front desk person who quickly got us checked in and provided us with a map of the city. When we got into our room, we were welcomed with chocolates and a letter thanking us for our stay at the hotel. Each morning, we enjoyed a continental breakfast that was quite satisfying.  The staff was very friendly and I would highly recommend this hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r285365133-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1249,9 +2052,6 @@
   </si>
   <si>
     <t>I love the pillows. My family and I had a wonderful time, room was very clean. The staff at the front desk are the best. Every time we call to ask for something, they brought it to us promptly. The hot breakfast was awesome. We would come here again next summer.</t>
-  </si>
-  <si>
-    <t>July 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r279854910-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
@@ -1309,6 +2109,60 @@
 I paid around $680.00 and half expected they would give me a partial refund because of my complaints.  I would never stay there.  Driving home and stayed at...I just stayed 6 days at this Holiday Inn Express.  I am not a complainer, but this place was the worst Holiday Inn I have ever stayed at.  I normally stay in Holiday Inns and have for over 40 years.   I have Allergies and Asthma so I like them as they are non smoking rooms.   I checked in and they gave me a King Size room on the 3rd floor.  I opened the door and it smelled like bleach and cigarettes.  I went down and said I needed a new room because someone smoked in the room and they used bleach to cover the smell.  The frt desk clerk said OH that's not cigarettes, that's Mildew because they have had a lot of rain.  I insisted I needed a new room.  He gave me one on the 2nd floor.  It smelled but wasn't as bad.  I was tired and took it.  Tried to open the window, but it was screwed close.  I turned on the AC and lowered the temp to 66 and turned on the Bathroom fan.  I ran it  all night long.  After about 2 days it started to loose the smell.  I would have switched hotels, but all the hotels around there were booked because of some college graduations.  I paid around $680.00 and half expected they would give me a partial refund because of my complaints.  I would never stay there.  Driving home and stayed at other brand name hotels.Never stay at this place.  I had 4 friends who stayed there too.  They were all disappointed too.  The maid service sucked, 2 of the days they never emptied my waste baskets or gave ew towels and shampoo.  There was dust on the dresser and desk, around the bathtub there was black mold.  The Wi-Fi was bad, so I used my Hot Spot on my phone.  The pancake machine was broken.  I complained to the manager and he had a I don't care attitude.  I expected  some sort of refund or apology.  Nothing was said.   In My Opinion This hotel is Terrible.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r254368410-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>254368410</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel stay </t>
+  </si>
+  <si>
+    <t>We stayed in Waller at the Holiday inn Express on Valentines Day. Room was really clean and the staff was friendly the manager kept up the breakfast perfectly even though there were a lot of teens eating from a sports tournament! Very impressed with staff an rooms! Thank I for making my valentines day perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Jason R, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>We stayed in Waller at the Holiday inn Express on Valentines Day. Room was really clean and the staff was friendly the manager kept up the breakfast perfectly even though there were a lot of teens eating from a sports tournament! Very impressed with staff an rooms! Thank I for making my valentines day perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r251632996-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>251632996</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>maybe I just got a bad room</t>
+  </si>
+  <si>
+    <t>We stay at a lot of hotels every year. I prefer IHG properties,we had just spent a few days in the woodlands and stopped in Waller on our way home. When we entered the lady at the front desk ignored us until the manager entered. We got to our room which smelled very mildewy. We had a two room suite and the window was leaking water because of rain that day. We called and let the front desk know. No one ever came. We put a towel down to catch the dripping water and left the next morning. (Gladly). Empty tissue box,no toilet paper and a very limited TV channel selection made this a less than typical IHG stay. I know we could have complained more and got another room but we were very tired. The staff had to know how this room smelled when they cleaned it.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>budpatel60, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>We stay at a lot of hotels every year. I prefer IHG properties,we had just spent a few days in the woodlands and stopped in Waller on our way home. When we entered the lady at the front desk ignored us until the manager entered. We got to our room which smelled very mildewy. We had a two room suite and the window was leaking water because of rain that day. We called and let the front desk know. No one ever came. We put a towel down to catch the dripping water and left the next morning. (Gladly). Empty tissue box,no toilet paper and a very limited TV channel selection made this a less than typical IHG stay. I know we could have complained more and got another room but we were very tired. The staff had to know how this room smelled when they cleaned it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r240700868-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1387,6 +2241,54 @@
     <t>First and foremost - for a business traveler - good water pressure? (check)  good iron? (check) good air temp (check) - so far so good.  Those are the basics - now the extras - the rooms are large, the bathrooms are clean, the breakfast is good (enough), the bed is very comfortable, and the staff is courteous.  No problems.  Great stay.  Will stay here for sure next time I am in town.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r230418331-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>230418331</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay, the best hotel in a small town</t>
+  </si>
+  <si>
+    <t>The hotel rooms are clean, spacious and the beds are ultra comfortable. Breakfast was great and plentiful with a choice of bagels, cereals, fruits, muffins, the best cinnamon rolls, eggs, hot biscuits , and a pancake machine was an added bonus.Front desk staff was very nice and friendly. Everyone was very kind and helpful from the time we checked in until we departed MoreShow less</t>
+  </si>
+  <si>
+    <t>budpatel60, General Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded September 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2014</t>
+  </si>
+  <si>
+    <t>The hotel rooms are clean, spacious and the beds are ultra comfortable. Breakfast was great and plentiful with a choice of bagels, cereals, fruits, muffins, the best cinnamon rolls, eggs, hot biscuits , and a pancake machine was an added bonus.Front desk staff was very nice and friendly. Everyone was very kind and helpful from the time we checked in until we departed More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r229093146-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>229093146</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Ok, but not the best.</t>
+  </si>
+  <si>
+    <t>When we arrived, chaos at the front desk. I don't think they were experienced in full occupancy, and there were groups checking in with many rooms not yet cleaned. The room we had was nice but the a/c hadn't been running a it smelled musty. We ran the a/c but the smell lingered our entire stay. There were 2 mirrors but the lighting was very dim at each and we had a hard time getting ready for the function we were attending. It was impossible to get the cold water to run in the scalding shower; never thought I'd complain about too much hot water!! The bed was comfy, but they called to kick us out at 11. I asked for a later check out-- everyone was gone, and they did give us a few more minutes begrudgingly. Don't think I'd stay there again. I'll drive the extra miles and stay in Katy Tx. next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>When we arrived, chaos at the front desk. I don't think they were experienced in full occupancy, and there were groups checking in with many rooms not yet cleaned. The room we had was nice but the a/c hadn't been running a it smelled musty. We ran the a/c but the smell lingered our entire stay. There were 2 mirrors but the lighting was very dim at each and we had a hard time getting ready for the function we were attending. It was impossible to get the cold water to run in the scalding shower; never thought I'd complain about too much hot water!! The bed was comfy, but they called to kick us out at 11. I asked for a later check out-- everyone was gone, and they did give us a few more minutes begrudgingly. Don't think I'd stay there again. I'll drive the extra miles and stay in Katy Tx. next time. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r221608441-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1438,6 +2340,42 @@
     <t>I recently stayed at this hotel. I was so impressed with the service they provided. Everyone was very professional yet friendly. The breakfast they provided was great. I would recommend this hotel to everyone. It was a wonderful stay!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r184737980-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>184737980</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Large, Clean Rooms</t>
+  </si>
+  <si>
+    <t>My friends and family stayed here in October when we went to the Renaissance festival.  The price was great and the staff was friendly.  The rooms were much larger than I thought they would be and had a great layout.  Also they were clean.  The breakfast area was always busy in the morning, but the lady who was taking care of replenishing was not really on top of her game.  Both mornings I was there they ran out of coffee and pancake batter, and it was like pulling teeth to get them replenished.  Other than that, the breakfast had a good selection of items and plenty of seating.  We had a good time.  I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>My friends and family stayed here in October when we went to the Renaissance festival.  The price was great and the staff was friendly.  The rooms were much larger than I thought they would be and had a great layout.  Also they were clean.  The breakfast area was always busy in the morning, but the lady who was taking care of replenishing was not really on top of her game.  Both mornings I was there they ran out of coffee and pancake batter, and it was like pulling teeth to get them replenished.  Other than that, the breakfast had a good selection of items and plenty of seating.  We had a good time.  I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r182745660-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>182745660</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>nice hotel, poor internet</t>
+  </si>
+  <si>
+    <t>This property is well maintained and the employess are nice.  The rooms were nice and the breakfast was the holiday inn express usual fare.  My only complaint is that the internet would fade when we got to our room.  I would stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r181418197-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1451,9 +2389,6 @@
   </si>
   <si>
     <t>Furniture and cleanliness are up to Holiday Inn usual standards, but the wireless internet does not work on the third floor: the link is just too weak.At check in we asked for a room at the back side of the hotel, and the manager replied that it is very quiet in all rooms, and gave us a room next to the elevator and nextdoor to the ice machine. The noise of the ice machine was louder than the airco, and we were disturbed by it all night. I had made it clear that I had several hours jetlag, and as we checked in early (only one car on the parking lot), I cannot understand why the simple service of providing a quiet room could not be rendered.Breakfast at 9 am was spoiled by lukewarm coffee.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2013</t>
   </si>
   <si>
     <t>budpatel, Manager at Holiday Inn Express Hotel &amp; Suites Waller, responded to this reviewResponded October 22, 2013</t>
@@ -1514,6 +2449,42 @@
     <t>Visiting friends in Hockley Texas and this was the newest and closest hotel to their home.  The area and neighbor not really the best but location to our friends home was pretty great.  Not too far from a very nice and large outlet mall in Cypress and there lots of places to eat and shop in Cypress.  Check in was super fast. The bed was comfortable and room was clean. Breakfast was the usual free breakfast...no complaints there.  The cleaning lady was knocking on the door way too early to clean the room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r169443033-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>169443033</t>
+  </si>
+  <si>
+    <t>Not up to Holiday Inn usual standards</t>
+  </si>
+  <si>
+    <t>We used reward points to stay one night for a wedding we attended in Magnolia. Check-in was fast. Room smelled musty. The granite in the shower is very dark at bottom...Don't know if its stained or moldy plus there were rusty nails in the wall above it. Beds were comfy but the worst part is their breakfast. We were out there a little before cutoff time and staff was steadily gathering breakfast as we served ourselves. With what we could get we went to our room. The orange juice was really water with a subtle orange flavor. Apple juice was the same. Eggs were wet and nasty. We couldn't eat it. Obviously they care more about saving money than feeding their guests just as they didn't care to let us sleep when knocking at 9 for cleaning. We will not stay here again..  free or notMoreShow less</t>
+  </si>
+  <si>
+    <t>We used reward points to stay one night for a wedding we attended in Magnolia. Check-in was fast. Room smelled musty. The granite in the shower is very dark at bottom...Don't know if its stained or moldy plus there were rusty nails in the wall above it. Beds were comfy but the worst part is their breakfast. We were out there a little before cutoff time and staff was steadily gathering breakfast as we served ourselves. With what we could get we went to our room. The orange juice was really water with a subtle orange flavor. Apple juice was the same. Eggs were wet and nasty. We couldn't eat it. Obviously they care more about saving money than feeding their guests just as they didn't care to let us sleep when knocking at 9 for cleaning. We will not stay here again..  free or notMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r159975966-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>159975966</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>A good place to stop</t>
+  </si>
+  <si>
+    <t>There is not a lot in Waller to see or do but  it is nice to stay outside of Houston close enough to do things but not the mess.  The hotel is clean, nice, and comfortable.  There are not many places to eat around the hotel.  If you like fast food or Mexican food you will be ok.  We were not given a Wi-Fi code and had to go back down and ask for it.  There was a baseball team and a wedding party staying at the hotel and other than seeing them in the common areas, one would never know they were there.  Breakfast was good with sausage, eggs, pancakes, cereal etc. in buffet style.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>There is not a lot in Waller to see or do but  it is nice to stay outside of Houston close enough to do things but not the mess.  The hotel is clean, nice, and comfortable.  There are not many places to eat around the hotel.  If you like fast food or Mexican food you will be ok.  We were not given a Wi-Fi code and had to go back down and ask for it.  There was a baseball team and a wedding party staying at the hotel and other than seeing them in the common areas, one would never know they were there.  Breakfast was good with sausage, eggs, pancakes, cereal etc. in buffet style.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r157470509-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +2542,45 @@
     <t>First, dont ever try to travel to Houston on May 1st.  There is a huge energy conference and every room, and I do mean EVERY room, was booked in the city.  Waller is about 40 miles outside of Houston and I was forced to stay here.  However, this hotel was a real find.  The staf is really friendly and helpful, and the hotel is clean and of a standard I would associate with a much more upscale brand than Holiday Inn Express.  My room has a nice wet bar with fridge, safe, etc. and is very clean and comfortable.  I cant say enough good things about the staff either.  Really a great find.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r124686264-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>124686264</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Consistent Quality</t>
+  </si>
+  <si>
+    <t>This was my second stay at this hotel and it will not be my last!  This is the core hotel for me during Renn Fest and I will continue to use it as a base.  The food is good.  The rooms are clean and comfortable.  The staff is friendly and professional.  Check in and out was quick, easy and painless.  Love the location in proximity to area restaurants.  Overall...double thumbs up.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r115228927-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>115228927</t>
+  </si>
+  <si>
+    <t>07/10/2011</t>
+  </si>
+  <si>
+    <t>Very nice Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>This is a very nice property! Check-in was quick, informative and Texas-style friendly. Check-out was just as efficient and friendly.The rooms are a very quiet, clean and relatively large.  The beds were very comfortable and had four pillows each. I really like that this chain does not have the old bedspread bedding.  The rooms and linens just look so fresh and clean.  Breakfast is pretty simple and standard for continental.  Some instant oatmeal, cold cereal, juice &amp; a few breakfast bread choices. But by 7:00 AM the breakfast bar needed some serious restocking. Bring your own mug in if, like me, you don't like your coffee in styrofoam!The outdoor pool looked clean and inviting but we had no time for a swim. I would absolutely stay here again if I'm between Austin and Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>This is a very nice property! Check-in was quick, informative and Texas-style friendly. Check-out was just as efficient and friendly.The rooms are a very quiet, clean and relatively large.  The beds were very comfortable and had four pillows each. I really like that this chain does not have the old bedspread bedding.  The rooms and linens just look so fresh and clean.  Breakfast is pretty simple and standard for continental.  Some instant oatmeal, cold cereal, juice &amp; a few breakfast bread choices. But by 7:00 AM the breakfast bar needed some serious restocking. Bring your own mug in if, like me, you don't like your coffee in styrofoam!The outdoor pool looked clean and inviting but we had no time for a swim. I would absolutely stay here again if I'm between Austin and Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r86947023-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
   </si>
   <si>
@@ -1623,6 +2633,42 @@
   </si>
   <si>
     <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r77962359-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>77962359</t>
+  </si>
+  <si>
+    <t>09/02/2010</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>Waller is a small town with few hotels. This hotel is excellent. The staff is very friendly and accommodating. Although fully booked and busy, my needs were attended to quickly.It was clean and breakfast was good and included.This was my second time staying there and I was impressed that the level of service remained consistently good.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r72795808-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
+  </si>
+  <si>
+    <t>72795808</t>
+  </si>
+  <si>
+    <t>07/28/2010</t>
+  </si>
+  <si>
+    <t>I wish I could give negative stars</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!  What a nightmare.  There was no hot water in the morning and all we were told was "Im sorry".  Two days later we found out that they charged us for 2 additional nights on our credit card.  The customer service rep lied to us.  And now we are going through a hassle with our credit card company to get the fraudulent charges removed.  They are also infested with mosquitos and in a crumy part of town with poor parking lot lighting.  The complementary breakfast was dissapointing.If I could give negative stars I would.  This place is a disgrace to all other Holiday Inns.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56840-d1382735-r63129027-Holiday_Inn_Express_Hotel_Suites_Waller-Waller_Texas.html</t>
@@ -2187,9 +3233,7 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
         <v>5</v>
@@ -2201,14 +3245,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2224,43 +3264,41 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -2269,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
         <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2291,25 +3329,25 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -2318,14 +3356,16 @@
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -2334,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
         <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -2356,43 +3396,41 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -2401,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2423,7 +3461,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2432,49 +3470,49 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -2490,7 +3528,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2499,39 +3537,49 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" t="s">
+        <v>69</v>
+      </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2547,7 +3595,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2556,31 +3604,31 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2590,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2612,7 +3660,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2621,31 +3669,29 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
         <v>5</v>
       </c>
@@ -2657,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -2679,7 +3725,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2688,31 +3734,31 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
         <v>5</v>
       </c>
@@ -2724,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2746,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2755,34 +3801,34 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2791,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2813,7 +3859,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2822,25 +3868,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2850,19 +3896,19 @@
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2878,7 +3924,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2887,43 +3933,47 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2939,7 +3989,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2948,43 +3998,49 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
       </c>
-      <c r="P14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -3000,7 +4056,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -3009,25 +4065,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3039,19 +4095,19 @@
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -3067,7 +4123,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -3076,49 +4132,49 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -3134,7 +4190,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -3143,49 +4199,39 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>179</v>
-      </c>
-      <c r="X17" t="s">
-        <v>180</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -3201,7 +4247,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3210,34 +4256,32 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -3246,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -3268,7 +4312,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3277,30 +4321,32 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
         <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>196</v>
-      </c>
-      <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>2</v>
       </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
@@ -3311,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="X19" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -3333,7 +4379,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -3342,31 +4388,31 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -3376,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
@@ -3398,7 +4444,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3407,49 +4453,49 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
@@ -3465,7 +4511,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3474,43 +4520,49 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -3526,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3535,30 +4587,28 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>5</v>
       </c>
@@ -3571,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="X23" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
@@ -3593,7 +4643,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3602,49 +4652,43 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="X24" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
@@ -3660,7 +4704,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3669,49 +4713,49 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
@@ -3727,7 +4771,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3736,25 +4780,25 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3764,19 +4808,19 @@
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
@@ -3792,7 +4836,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3801,49 +4845,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
@@ -3859,7 +4897,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3868,31 +4906,31 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3902,13 +4940,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
@@ -3924,7 +4962,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3933,49 +4971,43 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
@@ -3991,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -4000,49 +5032,43 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X30" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
@@ -4058,7 +5084,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -4067,47 +5093,49 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="X31" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="Y31" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32">
@@ -4123,7 +5151,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -4132,39 +5160,49 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="J32" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" t="s">
+        <v>242</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="Y32" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
@@ -4180,7 +5218,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4189,49 +5227,39 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>297</v>
-      </c>
-      <c r="O33" t="s">
-        <v>52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
@@ -4247,7 +5275,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4256,34 +5284,34 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>320</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4292,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="X34" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
@@ -4314,7 +5342,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4323,30 +5351,30 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
@@ -4358,10 +5386,14 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>317</v>
+      </c>
+      <c r="X35" t="s">
+        <v>318</v>
+      </c>
       <c r="Y35" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -4377,7 +5409,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4386,33 +5418,33 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4421,10 +5453,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>326</v>
+      </c>
+      <c r="X36" t="s">
+        <v>327</v>
+      </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37">
@@ -4440,7 +5476,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4449,43 +5485,47 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J37" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X37" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Y37" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
@@ -4501,7 +5541,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4510,43 +5550,49 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>343</v>
+      </c>
+      <c r="X38" t="s">
+        <v>344</v>
+      </c>
       <c r="Y38" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
@@ -4562,7 +5608,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4571,43 +5617,47 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="O39" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>343</v>
+      </c>
+      <c r="X39" t="s">
+        <v>344</v>
+      </c>
       <c r="Y39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
@@ -4623,41 +5673,41 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>352</v>
+      </c>
+      <c r="J40" t="s">
+        <v>353</v>
+      </c>
+      <c r="K40" t="s">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s">
         <v>355</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" t="s">
-        <v>356</v>
-      </c>
-      <c r="J40" t="s">
-        <v>357</v>
-      </c>
-      <c r="K40" t="s">
-        <v>358</v>
-      </c>
-      <c r="L40" t="s">
-        <v>359</v>
-      </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="O40" t="s">
-        <v>360</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4665,10 +5715,14 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>356</v>
+      </c>
+      <c r="X40" t="s">
+        <v>357</v>
+      </c>
       <c r="Y40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41">
@@ -4684,52 +5738,58 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
         <v>361</v>
       </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>362</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>363</v>
       </c>
-      <c r="K41" t="s">
-        <v>364</v>
-      </c>
-      <c r="L41" t="s">
-        <v>365</v>
-      </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
       <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>364</v>
+      </c>
+      <c r="X41" t="s">
+        <v>365</v>
+      </c>
       <c r="Y41" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
@@ -4769,30 +5829,28 @@
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>372</v>
+      </c>
+      <c r="X42" t="s">
+        <v>373</v>
+      </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -4808,7 +5866,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4817,32 +5875,32 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4850,10 +5908,14 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>372</v>
+      </c>
+      <c r="X43" t="s">
+        <v>373</v>
+      </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
@@ -4869,7 +5931,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4878,43 +5940,47 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O44" t="s">
         <v>52</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="X44" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Y44" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
@@ -4930,7 +5996,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4939,43 +6005,49 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="O45" t="s">
         <v>52</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="X45" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46">
@@ -4991,7 +6063,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -5000,49 +6072,49 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="X46" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Y46" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
@@ -5058,7 +6130,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -5067,45 +6139,49 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J47" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="O47" t="s">
         <v>52</v>
       </c>
-      <c r="P47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>411</v>
+      </c>
+      <c r="X47" t="s">
+        <v>412</v>
+      </c>
       <c r="Y47" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
@@ -5121,7 +6197,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5130,22 +6206,26 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J48" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>242</v>
+      </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
@@ -5156,13 +6236,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="X48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Y48" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
@@ -5178,7 +6258,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5187,49 +6267,49 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
+        <v>411</v>
+      </c>
+      <c r="X49" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y49" t="s">
         <v>424</v>
-      </c>
-      <c r="X49" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="50">
@@ -5245,58 +6325,56 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>426</v>
+      </c>
+      <c r="J50" t="s">
         <v>427</v>
       </c>
-      <c r="G50" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>428</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>429</v>
       </c>
-      <c r="K50" t="s">
-        <v>430</v>
-      </c>
-      <c r="L50" t="s">
-        <v>431</v>
-      </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s">
-        <v>137</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Y50" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51">
@@ -5312,41 +6390,43 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>434</v>
+      </c>
+      <c r="J51" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" t="s">
         <v>436</v>
       </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>437</v>
       </c>
-      <c r="J51" t="s">
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
         <v>438</v>
       </c>
-      <c r="K51" t="s">
-        <v>439</v>
-      </c>
-      <c r="L51" t="s">
-        <v>440</v>
-      </c>
-      <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s">
-        <v>441</v>
-      </c>
       <c r="O51" t="s">
-        <v>137</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
       <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5355,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="X51" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y51" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52">
@@ -5377,58 +6457,56 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" t="s">
+        <v>444</v>
+      </c>
+      <c r="K52" t="s">
         <v>445</v>
       </c>
-      <c r="G52" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" t="s">
-        <v>46</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="L52" t="s">
         <v>446</v>
       </c>
-      <c r="J52" t="s">
-        <v>447</v>
-      </c>
-      <c r="K52" t="s">
-        <v>448</v>
-      </c>
-      <c r="L52" t="s">
-        <v>449</v>
-      </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="X52" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Y52" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53">
@@ -5444,52 +6522,52 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>451</v>
+      </c>
+      <c r="J53" t="s">
+        <v>452</v>
+      </c>
+      <c r="K53" t="s">
         <v>453</v>
       </c>
-      <c r="G53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="L53" t="s">
         <v>454</v>
       </c>
-      <c r="J53" t="s">
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
         <v>455</v>
       </c>
-      <c r="K53" t="s">
-        <v>456</v>
-      </c>
-      <c r="L53" t="s">
-        <v>457</v>
-      </c>
-      <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s">
-        <v>458</v>
-      </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>456</v>
+      </c>
+      <c r="X53" t="s">
+        <v>457</v>
+      </c>
       <c r="Y53" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
@@ -5526,15 +6604,17 @@
         <v>463</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="O54" t="s">
-        <v>61</v>
-      </c>
-      <c r="P54" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
       <c r="Q54" t="s"/>
       <c r="R54" t="n">
         <v>5</v>
@@ -5547,10 +6627,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>464</v>
+      </c>
+      <c r="X54" t="s">
+        <v>465</v>
+      </c>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
@@ -5566,7 +6650,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5575,27 +6659,29 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L55" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="O55" t="s">
-        <v>137</v>
-      </c>
-      <c r="P55" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
       <c r="Q55" t="n">
         <v>5</v>
       </c>
@@ -5608,10 +6694,14 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>472</v>
+      </c>
+      <c r="X55" t="s">
+        <v>473</v>
+      </c>
       <c r="Y55" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56">
@@ -5627,7 +6717,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5636,53 +6726,49 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="J56" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="K56" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L56" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="X56" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="Y56" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57">
@@ -5698,7 +6784,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5707,38 +6793,32 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="J57" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K57" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L57" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="O57" t="s">
-        <v>320</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
         <v>5</v>
       </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>5</v>
@@ -5746,10 +6826,14 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>490</v>
+      </c>
+      <c r="X57" t="s">
+        <v>491</v>
+      </c>
       <c r="Y57" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
@@ -5765,7 +6849,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5774,53 +6858,43 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="J58" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K58" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O58" t="s">
         <v>52</v>
       </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>3</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="X58" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="Y58" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
@@ -5836,7 +6910,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5845,53 +6919,47 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="J59" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="K59" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L59" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="O59" t="s">
         <v>52</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="X59" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="Y59" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
@@ -5907,7 +6975,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5916,45 +6984,39 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="J60" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K60" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L60" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s"/>
       <c r="O60" t="s"/>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>4</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>490</v>
+      </c>
+      <c r="X60" t="s">
+        <v>491</v>
+      </c>
       <c r="Y60" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61">
@@ -5970,7 +7032,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5979,35 +7041,49 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="J61" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="K61" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="L61" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>489</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>518</v>
+      </c>
+      <c r="X61" t="s">
+        <v>519</v>
+      </c>
       <c r="Y61" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62">
@@ -6023,7 +7099,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -6032,49 +7108,49 @@
         <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="J62" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K62" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L62" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>268</v>
       </c>
       <c r="P62" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>3</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>526</v>
+      </c>
+      <c r="X62" t="s">
+        <v>527</v>
+      </c>
       <c r="Y62" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63">
@@ -6090,7 +7166,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -6099,49 +7175,39 @@
         <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="J63" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="K63" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="L63" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
-      </c>
-      <c r="N63" t="s">
-        <v>518</v>
-      </c>
-      <c r="O63" t="s">
-        <v>61</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="n">
-        <v>4</v>
-      </c>
-      <c r="S63" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>4</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>534</v>
+      </c>
+      <c r="X63" t="s">
+        <v>535</v>
+      </c>
       <c r="Y63" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64">
@@ -6157,7 +7223,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -6166,25 +7232,25 @@
         <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="J64" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="K64" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="L64" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="O64" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6192,12 +7258,8 @@
       <c r="Q64" t="n">
         <v>5</v>
       </c>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
         <v>5</v>
@@ -6208,7 +7270,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65">
@@ -6224,7 +7286,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="G65" t="s">
         <v>45</v>
@@ -6233,35 +7295,31 @@
         <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="J65" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="K65" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="L65" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="O65" t="s">
-        <v>137</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="n">
         <v>5</v>
       </c>
-      <c r="R65" t="n">
-        <v>5</v>
-      </c>
+      <c r="R65" t="s"/>
       <c r="S65" t="n">
         <v>5</v>
       </c>
@@ -6275,7 +7333,3211 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>537</v>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>548</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>549</v>
+      </c>
+      <c r="J66" t="s">
+        <v>550</v>
+      </c>
+      <c r="K66" t="s">
+        <v>551</v>
+      </c>
+      <c r="L66" t="s">
+        <v>552</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>553</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>554</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>555</v>
+      </c>
+      <c r="J67" t="s">
+        <v>556</v>
+      </c>
+      <c r="K67" t="s">
+        <v>557</v>
+      </c>
+      <c r="L67" t="s">
+        <v>558</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>553</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>559</v>
+      </c>
+      <c r="X67" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>562</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>563</v>
+      </c>
+      <c r="J68" t="s">
+        <v>564</v>
+      </c>
+      <c r="K68" t="s">
+        <v>565</v>
+      </c>
+      <c r="L68" t="s">
+        <v>566</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>553</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>567</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>568</v>
+      </c>
+      <c r="J69" t="s">
+        <v>569</v>
+      </c>
+      <c r="K69" t="s">
+        <v>570</v>
+      </c>
+      <c r="L69" t="s">
+        <v>571</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>553</v>
+      </c>
+      <c r="O69" t="s">
+        <v>242</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>572</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>573</v>
+      </c>
+      <c r="J70" t="s">
+        <v>574</v>
+      </c>
+      <c r="K70" t="s">
+        <v>575</v>
+      </c>
+      <c r="L70" t="s">
+        <v>576</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>577</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>578</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>579</v>
+      </c>
+      <c r="J71" t="s">
+        <v>580</v>
+      </c>
+      <c r="K71" t="s">
+        <v>581</v>
+      </c>
+      <c r="L71" t="s">
+        <v>582</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>577</v>
+      </c>
+      <c r="O71" t="s">
+        <v>242</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>583</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>584</v>
+      </c>
+      <c r="J72" t="s">
+        <v>585</v>
+      </c>
+      <c r="K72" t="s">
+        <v>586</v>
+      </c>
+      <c r="L72" t="s">
+        <v>587</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>577</v>
+      </c>
+      <c r="O72" t="s">
+        <v>588</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>589</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>590</v>
+      </c>
+      <c r="J73" t="s">
+        <v>591</v>
+      </c>
+      <c r="K73" t="s">
+        <v>592</v>
+      </c>
+      <c r="L73" t="s">
+        <v>593</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>594</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>596</v>
+      </c>
+      <c r="J74" t="s">
+        <v>597</v>
+      </c>
+      <c r="K74" t="s">
+        <v>598</v>
+      </c>
+      <c r="L74" t="s">
+        <v>599</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>577</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>600</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>601</v>
+      </c>
+      <c r="J75" t="s">
+        <v>602</v>
+      </c>
+      <c r="K75" t="s">
+        <v>603</v>
+      </c>
+      <c r="L75" t="s">
+        <v>604</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>594</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>605</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J76" t="s">
+        <v>607</v>
+      </c>
+      <c r="K76" t="s">
+        <v>608</v>
+      </c>
+      <c r="L76" t="s">
+        <v>609</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>594</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>610</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>611</v>
+      </c>
+      <c r="J77" t="s">
+        <v>612</v>
+      </c>
+      <c r="K77" t="s">
+        <v>613</v>
+      </c>
+      <c r="L77" t="s">
+        <v>614</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>615</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>616</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>617</v>
+      </c>
+      <c r="J78" t="s">
+        <v>618</v>
+      </c>
+      <c r="K78" t="s">
+        <v>619</v>
+      </c>
+      <c r="L78" t="s">
+        <v>620</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>615</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>621</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>622</v>
+      </c>
+      <c r="J79" t="s">
+        <v>623</v>
+      </c>
+      <c r="K79" t="s">
+        <v>624</v>
+      </c>
+      <c r="L79" t="s">
+        <v>625</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>626</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>627</v>
+      </c>
+      <c r="X79" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>630</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>631</v>
+      </c>
+      <c r="J80" t="s">
+        <v>632</v>
+      </c>
+      <c r="K80" t="s">
+        <v>633</v>
+      </c>
+      <c r="L80" t="s">
+        <v>634</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>626</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>635</v>
+      </c>
+      <c r="X80" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>638</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>639</v>
+      </c>
+      <c r="J81" t="s">
+        <v>640</v>
+      </c>
+      <c r="K81" t="s">
+        <v>641</v>
+      </c>
+      <c r="L81" t="s">
+        <v>642</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>643</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>644</v>
+      </c>
+      <c r="X81" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>648</v>
+      </c>
+      <c r="J82" t="s">
+        <v>649</v>
+      </c>
+      <c r="K82" t="s">
+        <v>650</v>
+      </c>
+      <c r="L82" t="s">
+        <v>651</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>643</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>652</v>
+      </c>
+      <c r="X82" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>655</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>656</v>
+      </c>
+      <c r="J83" t="s">
+        <v>657</v>
+      </c>
+      <c r="K83" t="s">
+        <v>658</v>
+      </c>
+      <c r="L83" t="s">
+        <v>659</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>660</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>661</v>
+      </c>
+      <c r="X83" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>664</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>665</v>
+      </c>
+      <c r="J84" t="s">
+        <v>666</v>
+      </c>
+      <c r="K84" t="s">
+        <v>667</v>
+      </c>
+      <c r="L84" t="s">
+        <v>668</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>660</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>669</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>670</v>
+      </c>
+      <c r="J85" t="s">
+        <v>671</v>
+      </c>
+      <c r="K85" t="s">
+        <v>672</v>
+      </c>
+      <c r="L85" t="s">
+        <v>673</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>660</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>674</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>675</v>
+      </c>
+      <c r="J86" t="s">
+        <v>676</v>
+      </c>
+      <c r="K86" t="s">
+        <v>677</v>
+      </c>
+      <c r="L86" t="s">
+        <v>678</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>679</v>
+      </c>
+      <c r="X86" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>682</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>683</v>
+      </c>
+      <c r="J87" t="s">
+        <v>684</v>
+      </c>
+      <c r="K87" t="s">
+        <v>685</v>
+      </c>
+      <c r="L87" t="s">
+        <v>686</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>687</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>688</v>
+      </c>
+      <c r="X87" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>691</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>692</v>
+      </c>
+      <c r="J88" t="s">
+        <v>693</v>
+      </c>
+      <c r="K88" t="s">
+        <v>694</v>
+      </c>
+      <c r="L88" t="s">
+        <v>695</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>696</v>
+      </c>
+      <c r="O88" t="s">
+        <v>242</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>697</v>
+      </c>
+      <c r="X88" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>700</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>701</v>
+      </c>
+      <c r="J89" t="s">
+        <v>702</v>
+      </c>
+      <c r="K89" t="s">
+        <v>703</v>
+      </c>
+      <c r="L89" t="s">
+        <v>704</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>705</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>706</v>
+      </c>
+      <c r="X89" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>709</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>710</v>
+      </c>
+      <c r="J90" t="s">
+        <v>711</v>
+      </c>
+      <c r="K90" t="s">
+        <v>712</v>
+      </c>
+      <c r="L90" t="s">
+        <v>713</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>714</v>
+      </c>
+      <c r="O90" t="s">
+        <v>242</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>715</v>
+      </c>
+      <c r="X90" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>718</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>719</v>
+      </c>
+      <c r="J91" t="s">
+        <v>720</v>
+      </c>
+      <c r="K91" t="s">
+        <v>721</v>
+      </c>
+      <c r="L91" t="s">
+        <v>722</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>723</v>
+      </c>
+      <c r="O91" t="s">
+        <v>242</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>724</v>
+      </c>
+      <c r="X91" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>727</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>728</v>
+      </c>
+      <c r="J92" t="s">
+        <v>729</v>
+      </c>
+      <c r="K92" t="s">
+        <v>730</v>
+      </c>
+      <c r="L92" t="s">
+        <v>731</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>723</v>
+      </c>
+      <c r="O92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>732</v>
+      </c>
+      <c r="X92" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>735</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>736</v>
+      </c>
+      <c r="J93" t="s">
+        <v>737</v>
+      </c>
+      <c r="K93" t="s">
+        <v>738</v>
+      </c>
+      <c r="L93" t="s">
+        <v>739</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>740</v>
+      </c>
+      <c r="X93" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>743</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>744</v>
+      </c>
+      <c r="J94" t="s">
+        <v>745</v>
+      </c>
+      <c r="K94" t="s">
+        <v>746</v>
+      </c>
+      <c r="L94" t="s">
+        <v>747</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>748</v>
+      </c>
+      <c r="X94" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>751</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>752</v>
+      </c>
+      <c r="J95" t="s">
+        <v>753</v>
+      </c>
+      <c r="K95" t="s">
+        <v>754</v>
+      </c>
+      <c r="L95" t="s">
+        <v>755</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>756</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>757</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>758</v>
+      </c>
+      <c r="J96" t="s">
+        <v>759</v>
+      </c>
+      <c r="K96" t="s">
+        <v>760</v>
+      </c>
+      <c r="L96" t="s">
+        <v>761</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>762</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>763</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>764</v>
+      </c>
+      <c r="J97" t="s">
+        <v>765</v>
+      </c>
+      <c r="K97" t="s">
+        <v>766</v>
+      </c>
+      <c r="L97" t="s">
+        <v>767</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>762</v>
+      </c>
+      <c r="O97" t="s">
+        <v>242</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>768</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>769</v>
+      </c>
+      <c r="J98" t="s">
+        <v>770</v>
+      </c>
+      <c r="K98" t="s">
+        <v>771</v>
+      </c>
+      <c r="L98" t="s">
+        <v>772</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>773</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>775</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>776</v>
+      </c>
+      <c r="J99" t="s">
+        <v>777</v>
+      </c>
+      <c r="K99" t="s">
+        <v>778</v>
+      </c>
+      <c r="L99" t="s">
+        <v>779</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>773</v>
+      </c>
+      <c r="O99" t="s">
+        <v>52</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>780</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>781</v>
+      </c>
+      <c r="J100" t="s">
+        <v>782</v>
+      </c>
+      <c r="K100" t="s">
+        <v>783</v>
+      </c>
+      <c r="L100" t="s">
+        <v>784</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>773</v>
+      </c>
+      <c r="O100" t="s">
+        <v>59</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>785</v>
+      </c>
+      <c r="X100" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>788</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>789</v>
+      </c>
+      <c r="J101" t="s">
+        <v>790</v>
+      </c>
+      <c r="K101" t="s">
+        <v>791</v>
+      </c>
+      <c r="L101" t="s">
+        <v>792</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>793</v>
+      </c>
+      <c r="O101" t="s">
+        <v>268</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>795</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>796</v>
+      </c>
+      <c r="J102" t="s">
+        <v>797</v>
+      </c>
+      <c r="K102" t="s">
+        <v>798</v>
+      </c>
+      <c r="L102" t="s">
+        <v>799</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>793</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>800</v>
+      </c>
+      <c r="X102" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>803</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>804</v>
+      </c>
+      <c r="J103" t="s">
+        <v>797</v>
+      </c>
+      <c r="K103" t="s">
+        <v>805</v>
+      </c>
+      <c r="L103" t="s">
+        <v>806</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>800</v>
+      </c>
+      <c r="X103" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>808</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>809</v>
+      </c>
+      <c r="J104" t="s">
+        <v>810</v>
+      </c>
+      <c r="K104" t="s">
+        <v>811</v>
+      </c>
+      <c r="L104" t="s">
+        <v>812</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>813</v>
+      </c>
+      <c r="O104" t="s">
+        <v>52</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>815</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>816</v>
+      </c>
+      <c r="J105" t="s">
+        <v>817</v>
+      </c>
+      <c r="K105" t="s">
+        <v>818</v>
+      </c>
+      <c r="L105" t="s">
+        <v>819</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>820</v>
+      </c>
+      <c r="O105" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>821</v>
+      </c>
+      <c r="X105" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>823</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>824</v>
+      </c>
+      <c r="J106" t="s">
+        <v>825</v>
+      </c>
+      <c r="K106" t="s">
+        <v>826</v>
+      </c>
+      <c r="L106" t="s">
+        <v>827</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>828</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>829</v>
+      </c>
+      <c r="J107" t="s">
+        <v>830</v>
+      </c>
+      <c r="K107" t="s">
+        <v>831</v>
+      </c>
+      <c r="L107" t="s">
+        <v>832</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>834</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>835</v>
+      </c>
+      <c r="J108" t="s">
+        <v>836</v>
+      </c>
+      <c r="K108" t="s">
+        <v>837</v>
+      </c>
+      <c r="L108" t="s">
+        <v>838</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>839</v>
+      </c>
+      <c r="O108" t="s">
+        <v>242</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>840</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>841</v>
+      </c>
+      <c r="J109" t="s">
+        <v>842</v>
+      </c>
+      <c r="K109" t="s">
+        <v>843</v>
+      </c>
+      <c r="L109" t="s">
+        <v>844</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>845</v>
+      </c>
+      <c r="O109" t="s">
+        <v>268</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>847</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s">
+        <v>848</v>
+      </c>
+      <c r="J110" t="s">
+        <v>849</v>
+      </c>
+      <c r="K110" t="s">
+        <v>850</v>
+      </c>
+      <c r="L110" t="s">
+        <v>851</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>852</v>
+      </c>
+      <c r="O110" t="s">
+        <v>59</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s">
+        <v>854</v>
+      </c>
+      <c r="G111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" t="s">
+        <v>855</v>
+      </c>
+      <c r="J111" t="s">
+        <v>856</v>
+      </c>
+      <c r="K111" t="s">
+        <v>857</v>
+      </c>
+      <c r="L111" t="s">
+        <v>858</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>852</v>
+      </c>
+      <c r="O111" t="s">
+        <v>59</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
+        <v>859</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" t="s">
+        <v>860</v>
+      </c>
+      <c r="J112" t="s">
+        <v>861</v>
+      </c>
+      <c r="K112" t="s">
+        <v>862</v>
+      </c>
+      <c r="L112" t="s">
+        <v>863</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>864</v>
+      </c>
+      <c r="O112" t="s">
+        <v>52</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s">
+        <v>865</v>
+      </c>
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" t="s">
+        <v>866</v>
+      </c>
+      <c r="J113" t="s">
+        <v>867</v>
+      </c>
+      <c r="K113" t="s">
+        <v>868</v>
+      </c>
+      <c r="L113" t="s">
+        <v>869</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>870</v>
+      </c>
+      <c r="O113" t="s">
+        <v>588</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s">
+        <v>871</v>
+      </c>
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" t="s">
+        <v>872</v>
+      </c>
+      <c r="J114" t="s">
+        <v>873</v>
+      </c>
+      <c r="K114" t="s">
+        <v>874</v>
+      </c>
+      <c r="L114" t="s">
+        <v>875</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>876</v>
+      </c>
+      <c r="O114" t="s">
+        <v>52</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>59236</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s">
+        <v>877</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" t="s">
+        <v>878</v>
+      </c>
+      <c r="J115" t="s">
+        <v>879</v>
+      </c>
+      <c r="K115" t="s">
+        <v>880</v>
+      </c>
+      <c r="L115" t="s">
+        <v>881</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>882</v>
+      </c>
+      <c r="O115" t="s">
+        <v>242</v>
+      </c>
+      <c r="P115" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
